--- a/seatPage.xlsx
+++ b/seatPage.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627556EB-350D-4A8E-8E0F-079A070A5DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDF5E8EF-9A92-4C06-A8B1-AAE691BEEEC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$612</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,15 +40,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="1214">
   <si>
     <t>Sr. No</t>
   </si>
   <si>
-    <t>EMIP</t>
-  </si>
-  <si>
-    <t>EmpName</t>
+    <t>EM IP</t>
+  </si>
+  <si>
+    <t>Emp Name</t>
   </si>
   <si>
     <t>Seat</t>
@@ -3675,6 +3679,9 @@
   </si>
   <si>
     <t>Sarbpreet</t>
+  </si>
+  <si>
+    <t>S10290</t>
   </si>
 </sst>
 </file>
@@ -3684,7 +3691,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3693,13 +3700,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -3724,19 +3738,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3745,7 +3753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799979984760284"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3761,18 +3769,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3784,75 +3780,46 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3860,13 +3827,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3875,90 +3839,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Normal 3" xfId="20"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{37059CE2-E4A0-4829-9D8E-B4CDEA593036}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B4468150-A4DE-432C-8825-F1BB1FD601F4}"/>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4286,24 +4178,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA5534B-E663-4101-B9CC-D9E29370EFE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA5534B-E663-4101-B9CC-D9E29370EFE7}">
   <dimension ref="A1:F612"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.14285714285714" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28571428571429" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85714285714286" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4323,7 +4215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4340,11 +4232,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f t="shared" si="0" ref="F2:F65">CONCATENATE(D2," No - ",E2)</f>
+        <f t="shared" ref="F2:F65" si="0">CONCATENATE(D2," No - ",E2)</f>
         <v>Chair No - 1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -4365,7 +4257,7 @@
         <v>Chair No - 2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -4386,7 +4278,7 @@
         <v>Chair No - 3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -4407,7 +4299,7 @@
         <v>Chair No - 4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -4428,7 +4320,7 @@
         <v>Chair No - 5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -4449,7 +4341,7 @@
         <v>Chair No - 6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -4470,7 +4362,7 @@
         <v>Chair No - 7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -4491,7 +4383,7 @@
         <v>Chair No - 8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -4512,7 +4404,7 @@
         <v>Chair No - 9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -4533,7 +4425,7 @@
         <v>Chair No - 10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -4554,7 +4446,7 @@
         <v>Chair No - 11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -4575,7 +4467,7 @@
         <v>Chair No - 12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -4596,7 +4488,7 @@
         <v>Chair No - 13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>16</v>
       </c>
@@ -4617,7 +4509,7 @@
         <v>Chair No - 14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>17</v>
       </c>
@@ -4638,7 +4530,7 @@
         <v>Chair No - 15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>18</v>
       </c>
@@ -4659,7 +4551,7 @@
         <v>Chair No - 16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>20</v>
       </c>
@@ -4680,7 +4572,7 @@
         <v>Chair No - 17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>21</v>
       </c>
@@ -4701,7 +4593,7 @@
         <v>Chair No - 18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>23</v>
       </c>
@@ -4722,7 +4614,7 @@
         <v>Chair No - 19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>24</v>
       </c>
@@ -4743,7 +4635,7 @@
         <v>Chair No - 20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>25</v>
       </c>
@@ -4764,7 +4656,7 @@
         <v>Chair No - 21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>26</v>
       </c>
@@ -4785,7 +4677,7 @@
         <v>Chair No - 22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>27</v>
       </c>
@@ -4806,7 +4698,7 @@
         <v>Chair No - 23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>28</v>
       </c>
@@ -4827,7 +4719,7 @@
         <v>Chair No - 24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>29</v>
       </c>
@@ -4848,7 +4740,7 @@
         <v>Chair No - 25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -4869,7 +4761,7 @@
         <v>Chair No - 26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>32</v>
       </c>
@@ -4890,7 +4782,7 @@
         <v>Chair No - 27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>33</v>
       </c>
@@ -4911,7 +4803,7 @@
         <v>Chair No - 28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>34</v>
       </c>
@@ -4932,7 +4824,7 @@
         <v>Chair No - 29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>35</v>
       </c>
@@ -4953,7 +4845,7 @@
         <v>Chair No - 30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>36</v>
       </c>
@@ -4974,7 +4866,7 @@
         <v>Chair No - 31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>37</v>
       </c>
@@ -4995,7 +4887,7 @@
         <v>Chair No - 32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>38</v>
       </c>
@@ -5016,7 +4908,7 @@
         <v>Chair No - 33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.5">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>39</v>
       </c>
@@ -5037,7 +4929,7 @@
         <v>Chair No - 34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>40</v>
       </c>
@@ -5058,7 +4950,7 @@
         <v>Chair No - 35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.5">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>41</v>
       </c>
@@ -5079,7 +4971,7 @@
         <v>Chair No - 36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>42</v>
       </c>
@@ -5100,7 +4992,7 @@
         <v>Chair No - 37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.5">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>44</v>
       </c>
@@ -5121,7 +5013,7 @@
         <v>Chair No - 38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.5">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>45</v>
       </c>
@@ -5142,7 +5034,7 @@
         <v>Chair No - 39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.5">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>46</v>
       </c>
@@ -5163,7 +5055,7 @@
         <v>Chair No - 40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.5">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>49</v>
       </c>
@@ -5184,7 +5076,7 @@
         <v>Chair No - 41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.5">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>50</v>
       </c>
@@ -5205,7 +5097,7 @@
         <v>Chair No - 42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.5">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>51</v>
       </c>
@@ -5226,7 +5118,7 @@
         <v>Chair No - 43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.5">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>55</v>
       </c>
@@ -5247,7 +5139,7 @@
         <v>Chair No - 44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.5">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>56</v>
       </c>
@@ -5268,7 +5160,7 @@
         <v>Chair No - 45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.5">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>59</v>
       </c>
@@ -5289,7 +5181,7 @@
         <v>Chair No - 46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.5">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>60</v>
       </c>
@@ -5310,7 +5202,7 @@
         <v>Chair No - 47</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.5">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>62</v>
       </c>
@@ -5331,7 +5223,7 @@
         <v>Chair No - 48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.5">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>63</v>
       </c>
@@ -5352,7 +5244,7 @@
         <v>Chair No - 49</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.5">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>64</v>
       </c>
@@ -5373,7 +5265,7 @@
         <v>Chair No - 50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>65</v>
       </c>
@@ -5394,7 +5286,7 @@
         <v>Chair No - 51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.5">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>66</v>
       </c>
@@ -5415,7 +5307,7 @@
         <v>Chair No - 52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.5">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>70</v>
       </c>
@@ -5436,7 +5328,7 @@
         <v>Chair No - 53</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.5">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>71</v>
       </c>
@@ -5457,7 +5349,7 @@
         <v>Chair No - 54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.5">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>73</v>
       </c>
@@ -5478,7 +5370,7 @@
         <v>Chair No - 55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.5">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>74</v>
       </c>
@@ -5499,7 +5391,7 @@
         <v>Chair No - 56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.5">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>75</v>
       </c>
@@ -5520,7 +5412,7 @@
         <v>Chair No - 57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.5">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>76</v>
       </c>
@@ -5541,7 +5433,7 @@
         <v>Chair No - 58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.5">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>77</v>
       </c>
@@ -5562,7 +5454,7 @@
         <v>Chair No - 59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.5">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>78</v>
       </c>
@@ -5583,7 +5475,7 @@
         <v>Chair No - 60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.5">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>79</v>
       </c>
@@ -5604,7 +5496,7 @@
         <v>Chair No - 61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.5">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>80</v>
       </c>
@@ -5625,7 +5517,7 @@
         <v>Chair No - 62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.5">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>81</v>
       </c>
@@ -5646,7 +5538,7 @@
         <v>Chair No - 63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.5">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>82</v>
       </c>
@@ -5667,7 +5559,7 @@
         <v>Chair No - 64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.5">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>85</v>
       </c>
@@ -5684,11 +5576,11 @@
         <v>65</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f t="shared" si="1" ref="F66:F129">CONCATENATE(D66," No - ",E66)</f>
+        <f t="shared" ref="F66:F129" si="1">CONCATENATE(D66," No - ",E66)</f>
         <v>Chair No - 65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.5">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>86</v>
       </c>
@@ -5709,7 +5601,7 @@
         <v>Chair No - 66</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.5">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>87</v>
       </c>
@@ -5730,7 +5622,7 @@
         <v>Chair No - 67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.5">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>88</v>
       </c>
@@ -5751,7 +5643,7 @@
         <v>Chair No - 68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.5">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>89</v>
       </c>
@@ -5772,7 +5664,7 @@
         <v>Chair No - 69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.5">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>91</v>
       </c>
@@ -5793,7 +5685,7 @@
         <v>Chair No - 70</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.5">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>93</v>
       </c>
@@ -5814,7 +5706,7 @@
         <v>Chair No - 71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.5">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>94</v>
       </c>
@@ -5835,7 +5727,7 @@
         <v>Chair No - 72</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.5">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>95</v>
       </c>
@@ -5856,7 +5748,7 @@
         <v>Chair No - 73</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.5">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>96</v>
       </c>
@@ -5877,7 +5769,7 @@
         <v>Chair No - 74</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.5">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>97</v>
       </c>
@@ -5898,7 +5790,7 @@
         <v>Chair No - 75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.5">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>98</v>
       </c>
@@ -5919,7 +5811,7 @@
         <v>Chair No - 76</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.5">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>100</v>
       </c>
@@ -5940,7 +5832,7 @@
         <v>Chair No - 77</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.5">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>101</v>
       </c>
@@ -5961,7 +5853,7 @@
         <v>Chair No - 78</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.5">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>103</v>
       </c>
@@ -5982,7 +5874,7 @@
         <v>Chair No - 79</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.5">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>104</v>
       </c>
@@ -6003,7 +5895,7 @@
         <v>Chair No - 80</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.5">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>105</v>
       </c>
@@ -6024,7 +5916,7 @@
         <v>Chair No - 81</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.5">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>107</v>
       </c>
@@ -6045,7 +5937,7 @@
         <v>Chair No - 82</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.5">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>108</v>
       </c>
@@ -6066,7 +5958,7 @@
         <v>Chair No - 83</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.5">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>109</v>
       </c>
@@ -6087,7 +5979,7 @@
         <v>Chair No - 84</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.5">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>110</v>
       </c>
@@ -6108,7 +6000,7 @@
         <v>Chair No - 85</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.5">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>115</v>
       </c>
@@ -6129,7 +6021,7 @@
         <v>Chair No - 86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.5">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>118</v>
       </c>
@@ -6150,7 +6042,7 @@
         <v>Chair No - 87</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.5">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>119</v>
       </c>
@@ -6171,7 +6063,7 @@
         <v>Chair No - 88</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.5">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>120</v>
       </c>
@@ -6192,7 +6084,7 @@
         <v>Chair No - 89</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.5">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>121</v>
       </c>
@@ -6213,7 +6105,7 @@
         <v>Chair No - 90</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.5">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>122</v>
       </c>
@@ -6234,7 +6126,7 @@
         <v>Chair No - 91</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.5">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>124</v>
       </c>
@@ -6255,7 +6147,7 @@
         <v>Chair No - 92</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.5">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>126</v>
       </c>
@@ -6276,7 +6168,7 @@
         <v>Chair No - 93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.5">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>127</v>
       </c>
@@ -6297,7 +6189,7 @@
         <v>Chair No - 94</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.5">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>128</v>
       </c>
@@ -6318,7 +6210,7 @@
         <v>Chair No - 95</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.5">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>129</v>
       </c>
@@ -6339,7 +6231,7 @@
         <v>Chair No - 96</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.5">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>130</v>
       </c>
@@ -6360,7 +6252,7 @@
         <v>Chair No - 97</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.5">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>131</v>
       </c>
@@ -6381,7 +6273,7 @@
         <v>Chair No - 98</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.5">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>132</v>
       </c>
@@ -6402,7 +6294,7 @@
         <v>Chair No - 99</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.5">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>135</v>
       </c>
@@ -6423,7 +6315,7 @@
         <v>Chair No - 100</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.5">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>136</v>
       </c>
@@ -6444,7 +6336,7 @@
         <v>Chair No - 101</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.5">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>137</v>
       </c>
@@ -6465,7 +6357,7 @@
         <v>Chair No - 102</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.5">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>138</v>
       </c>
@@ -6486,7 +6378,7 @@
         <v>Chair No - 103</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.5">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>139</v>
       </c>
@@ -6507,7 +6399,7 @@
         <v>Chair No - 104</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.5">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>141</v>
       </c>
@@ -6528,7 +6420,7 @@
         <v>Chair No - 105</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.5">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>142</v>
       </c>
@@ -6549,7 +6441,7 @@
         <v>Chair No - 106</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.5">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>143</v>
       </c>
@@ -6570,7 +6462,7 @@
         <v>Chair No - 107</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.5">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>144</v>
       </c>
@@ -6591,7 +6483,7 @@
         <v>Chair No - 108</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.5">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>147</v>
       </c>
@@ -6612,7 +6504,7 @@
         <v>Chair No - 109</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="16">
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
         <v>148</v>
       </c>
@@ -6633,7 +6525,7 @@
         <v>Chair No - 110</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.5">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>149</v>
       </c>
@@ -6654,7 +6546,7 @@
         <v>Chair No - 111</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14.5">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>152</v>
       </c>
@@ -6675,7 +6567,7 @@
         <v>Chair No - 112</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14.5">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>153</v>
       </c>
@@ -6696,7 +6588,7 @@
         <v>Chair No - 113</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14.5">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>155</v>
       </c>
@@ -6717,7 +6609,7 @@
         <v>Chair No - 114</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14.5">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>158</v>
       </c>
@@ -6738,7 +6630,7 @@
         <v>Chair No - 115</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.5">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>159</v>
       </c>
@@ -6759,7 +6651,7 @@
         <v>Chair No - 116</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.5">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>160</v>
       </c>
@@ -6773,14 +6665,14 @@
         <v>8</v>
       </c>
       <c r="E118" s="3">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="F118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Chair No - 43</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="14.5">
+        <v>Chair No - 117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>161</v>
       </c>
@@ -6801,7 +6693,7 @@
         <v>Chair No - 118</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="14.5">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>162</v>
       </c>
@@ -6822,7 +6714,7 @@
         <v>Chair No - 119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14.5">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>163</v>
       </c>
@@ -6843,7 +6735,7 @@
         <v>Chair No - 120</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14.5">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>166</v>
       </c>
@@ -6864,7 +6756,7 @@
         <v>Chair No - 121</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14.5">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>167</v>
       </c>
@@ -6885,7 +6777,7 @@
         <v>Chair No - 122</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14.5">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>168</v>
       </c>
@@ -6906,7 +6798,7 @@
         <v>Chair No - 123</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.5">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>170</v>
       </c>
@@ -6927,7 +6819,7 @@
         <v>Chair No - 124</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14.5">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>172</v>
       </c>
@@ -6948,7 +6840,7 @@
         <v>Chair No - 125</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14.5">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>174</v>
       </c>
@@ -6969,7 +6861,7 @@
         <v>Chair No - 126</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.5">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>176</v>
       </c>
@@ -6990,7 +6882,7 @@
         <v>Chair No - 127</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="14.5">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>177</v>
       </c>
@@ -7011,7 +6903,7 @@
         <v>Chair No - 128</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="14.5">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>178</v>
       </c>
@@ -7028,11 +6920,11 @@
         <v>129</v>
       </c>
       <c r="F130" s="3" t="str">
-        <f t="shared" si="2" ref="F130:F193">CONCATENATE(D130," No - ",E130)</f>
+        <f t="shared" ref="F130:F193" si="2">CONCATENATE(D130," No - ",E130)</f>
         <v>Chair No - 129</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.5">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>179</v>
       </c>
@@ -7053,7 +6945,7 @@
         <v>Chair No - 130</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="14.5">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>181</v>
       </c>
@@ -7074,7 +6966,7 @@
         <v>Chair No - 131</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.5">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>182</v>
       </c>
@@ -7095,7 +6987,7 @@
         <v>Chair No - 132</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="14.5">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>184</v>
       </c>
@@ -7116,7 +7008,7 @@
         <v>Chair No - 133</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14.5">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>185</v>
       </c>
@@ -7137,7 +7029,7 @@
         <v>Chair No - 134</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.5">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>186</v>
       </c>
@@ -7158,7 +7050,7 @@
         <v>Chair No - 135</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.5">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>187</v>
       </c>
@@ -7179,7 +7071,7 @@
         <v>Chair No - 136</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.5">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>188</v>
       </c>
@@ -7200,7 +7092,7 @@
         <v>Chair No - 137</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="14.5">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>190</v>
       </c>
@@ -7221,7 +7113,7 @@
         <v>Chair No - 138</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="14.5">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>192</v>
       </c>
@@ -7242,7 +7134,7 @@
         <v>Chair No - 139</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14.5">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>193</v>
       </c>
@@ -7263,7 +7155,7 @@
         <v>Chair No - 140</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="14.5">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>194</v>
       </c>
@@ -7284,7 +7176,7 @@
         <v>Chair No - 141</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14.5">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>195</v>
       </c>
@@ -7305,7 +7197,7 @@
         <v>Chair No - 142</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="14.5">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>196</v>
       </c>
@@ -7326,7 +7218,7 @@
         <v>Chair No - 143</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="14.5">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>197</v>
       </c>
@@ -7347,7 +7239,7 @@
         <v>Chair No - 144</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="14.5">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>198</v>
       </c>
@@ -7368,7 +7260,7 @@
         <v>Chair No - 145</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="14.5">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>199</v>
       </c>
@@ -7389,7 +7281,7 @@
         <v>Chair No - 146</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="14.5">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>201</v>
       </c>
@@ -7410,7 +7302,7 @@
         <v>Chair No - 147</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="14.5">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>202</v>
       </c>
@@ -7431,7 +7323,7 @@
         <v>Chair No - 148</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="14.5">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>203</v>
       </c>
@@ -7452,7 +7344,7 @@
         <v>Chair No - 149</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="14.5">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>204</v>
       </c>
@@ -7473,7 +7365,7 @@
         <v>Chair No - 150</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="14.5">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>205</v>
       </c>
@@ -7494,7 +7386,7 @@
         <v>Chair No - 151</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="14.5">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>206</v>
       </c>
@@ -7515,7 +7407,7 @@
         <v>Chair No - 152</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="14.5">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>207</v>
       </c>
@@ -7536,7 +7428,7 @@
         <v>Chair No - 153</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="14.5">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>208</v>
       </c>
@@ -7557,7 +7449,7 @@
         <v>Chair No - 154</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="14.5">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>209</v>
       </c>
@@ -7578,7 +7470,7 @@
         <v>Chair No - 155</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="14.5">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>210</v>
       </c>
@@ -7599,7 +7491,7 @@
         <v>Chair No - 156</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="14.5">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>211</v>
       </c>
@@ -7620,7 +7512,7 @@
         <v>Chair No - 157</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="14.5">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>212</v>
       </c>
@@ -7641,7 +7533,7 @@
         <v>Chair No - 158</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="14.5">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>213</v>
       </c>
@@ -7662,7 +7554,7 @@
         <v>Chair No - 159</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="14.5">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>214</v>
       </c>
@@ -7683,7 +7575,7 @@
         <v>Chair No - 160</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="14.5">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>216</v>
       </c>
@@ -7704,7 +7596,7 @@
         <v>Chair No - 161</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="14.5">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>218</v>
       </c>
@@ -7725,7 +7617,7 @@
         <v>Chair No - 162</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="14.5">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>219</v>
       </c>
@@ -7746,7 +7638,7 @@
         <v>Chair No - 163</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="14.5">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>220</v>
       </c>
@@ -7767,7 +7659,7 @@
         <v>Chair No - 164</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="14.5">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>221</v>
       </c>
@@ -7788,7 +7680,7 @@
         <v>Chair No - 165</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="14.5">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>222</v>
       </c>
@@ -7809,7 +7701,7 @@
         <v>Chair No - 166</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="14.5">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>223</v>
       </c>
@@ -7830,7 +7722,7 @@
         <v>Chair No - 167</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="14.5">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>224</v>
       </c>
@@ -7851,7 +7743,7 @@
         <v>Chair No - 168</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="14.5">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>225</v>
       </c>
@@ -7872,7 +7764,7 @@
         <v>Chair No - 169</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="14.5">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>226</v>
       </c>
@@ -7893,7 +7785,7 @@
         <v>Chair No - 170</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="14.5">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>227</v>
       </c>
@@ -7914,7 +7806,7 @@
         <v>Chair No - 171</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="14.5">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>228</v>
       </c>
@@ -7935,7 +7827,7 @@
         <v>Chair No - 172</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="14.5">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>229</v>
       </c>
@@ -7956,7 +7848,7 @@
         <v>Chair No - 173</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14.5">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>230</v>
       </c>
@@ -7977,7 +7869,7 @@
         <v>Chair No - 174</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="14.5">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>231</v>
       </c>
@@ -7998,7 +7890,7 @@
         <v>Chair No - 175</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="14.5">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>232</v>
       </c>
@@ -8019,7 +7911,7 @@
         <v>Chair No - 176</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="14.5">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>233</v>
       </c>
@@ -8040,7 +7932,7 @@
         <v>Chair No - 177</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="14.5">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>234</v>
       </c>
@@ -8061,7 +7953,7 @@
         <v>Chair No - 178</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="14.5">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>236</v>
       </c>
@@ -8082,7 +7974,7 @@
         <v>Chair No - 179</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="14.5">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>238</v>
       </c>
@@ -8103,7 +7995,7 @@
         <v>Chair No - 180</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="14.5">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>240</v>
       </c>
@@ -8124,7 +8016,7 @@
         <v>Chair No - 181</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="14.5">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>241</v>
       </c>
@@ -8145,7 +8037,7 @@
         <v>Chair No - 182</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="14.5">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>242</v>
       </c>
@@ -8166,7 +8058,7 @@
         <v>Chair No - 183</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="14.5">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>243</v>
       </c>
@@ -8187,7 +8079,7 @@
         <v>Chair No - 184</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="14.5">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>244</v>
       </c>
@@ -8208,7 +8100,7 @@
         <v>Chair No - 185</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="14.5">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>245</v>
       </c>
@@ -8229,7 +8121,7 @@
         <v>Chair No - 186</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="14.5">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>246</v>
       </c>
@@ -8250,7 +8142,7 @@
         <v>Chair No - 187</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="14.5">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>247</v>
       </c>
@@ -8271,7 +8163,7 @@
         <v>Chair No - 188</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="14.5">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>248</v>
       </c>
@@ -8292,7 +8184,7 @@
         <v>Chair No - 189</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="14.5">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>249</v>
       </c>
@@ -8313,7 +8205,7 @@
         <v>Chair No - 190</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="14.5">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>250</v>
       </c>
@@ -8334,7 +8226,7 @@
         <v>Chair No - 191</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="14.5">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>253</v>
       </c>
@@ -8355,7 +8247,7 @@
         <v>Chair No - 192</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="14.5">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>254</v>
       </c>
@@ -8372,11 +8264,11 @@
         <v>193</v>
       </c>
       <c r="F194" s="3" t="str">
-        <f t="shared" si="3" ref="F194:F257">CONCATENATE(D194," No - ",E194)</f>
+        <f t="shared" ref="F194:F257" si="3">CONCATENATE(D194," No - ",E194)</f>
         <v>Chair No - 193</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="14.5">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>255</v>
       </c>
@@ -8397,7 +8289,7 @@
         <v>Chair No - 194</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="14.5">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>256</v>
       </c>
@@ -8418,7 +8310,7 @@
         <v>Chair No - 195</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="14.5">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>257</v>
       </c>
@@ -8439,7 +8331,7 @@
         <v>Chair No - 196</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="14.5">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>258</v>
       </c>
@@ -8460,7 +8352,7 @@
         <v>Chair No - 197</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="14.5">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>259</v>
       </c>
@@ -8481,7 +8373,7 @@
         <v>Chair No - 198</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="14.5">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>260</v>
       </c>
@@ -8502,7 +8394,7 @@
         <v>Chair No - 199</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="14.5">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>261</v>
       </c>
@@ -8523,7 +8415,7 @@
         <v>Chair No - 200</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="14.5">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>262</v>
       </c>
@@ -8544,7 +8436,7 @@
         <v>Chair No - 201</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="14.5">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>263</v>
       </c>
@@ -8565,7 +8457,7 @@
         <v>Chair No - 202</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="14.5">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>264</v>
       </c>
@@ -8586,7 +8478,7 @@
         <v>Chair No - 203</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="14.5">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>265</v>
       </c>
@@ -8607,7 +8499,7 @@
         <v>Chair No - 204</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="14.5">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>266</v>
       </c>
@@ -8628,7 +8520,7 @@
         <v>Chair No - 205</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="14.5">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>267</v>
       </c>
@@ -8649,7 +8541,7 @@
         <v>Chair No - 206</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="14.5">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>268</v>
       </c>
@@ -8670,7 +8562,7 @@
         <v>Chair No - 207</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="14.5">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>269</v>
       </c>
@@ -8691,7 +8583,7 @@
         <v>Chair No - 208</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="14.5">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>270</v>
       </c>
@@ -8712,7 +8604,7 @@
         <v>Chair No - 209</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="14.5">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>271</v>
       </c>
@@ -8733,7 +8625,7 @@
         <v>Chair No - 210</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="14.5">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>272</v>
       </c>
@@ -8754,7 +8646,7 @@
         <v>Chair No - 211</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="14.5">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>273</v>
       </c>
@@ -8775,7 +8667,7 @@
         <v>Chair No - 212</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="14.5">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>274</v>
       </c>
@@ -8796,7 +8688,7 @@
         <v>Chair No - 213</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="14.5">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>275</v>
       </c>
@@ -8817,7 +8709,7 @@
         <v>Chair No - 214</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="14.5">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>276</v>
       </c>
@@ -8838,7 +8730,7 @@
         <v>Chair No - 215</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="14.5">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>278</v>
       </c>
@@ -8859,7 +8751,7 @@
         <v>Chair No - 216</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="14.5">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>279</v>
       </c>
@@ -8880,7 +8772,7 @@
         <v>Chair No - 217</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="14.5">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>280</v>
       </c>
@@ -8901,7 +8793,7 @@
         <v>Chair No - 218</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="14.5">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>281</v>
       </c>
@@ -8922,7 +8814,7 @@
         <v>Chair No - 219</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="14.5">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>282</v>
       </c>
@@ -8943,7 +8835,7 @@
         <v>Chair No - 220</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="14.5">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>283</v>
       </c>
@@ -8964,7 +8856,7 @@
         <v>Chair No - 221</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="14.5">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>284</v>
       </c>
@@ -8985,7 +8877,7 @@
         <v>Chair No - 222</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="14.5">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>285</v>
       </c>
@@ -9006,7 +8898,7 @@
         <v>Chair No - 223</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="14.5">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>286</v>
       </c>
@@ -9027,7 +8919,7 @@
         <v>Chair No - 224</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="14.5">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>287</v>
       </c>
@@ -9048,7 +8940,7 @@
         <v>Chair No - 225</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="14.5">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>288</v>
       </c>
@@ -9069,7 +8961,7 @@
         <v>Chair No - 226</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="14.5">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>289</v>
       </c>
@@ -9090,7 +8982,7 @@
         <v>Chair No - 227</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="14.5">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>290</v>
       </c>
@@ -9111,7 +9003,7 @@
         <v>Chair No - 228</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="14.5">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>291</v>
       </c>
@@ -9132,7 +9024,7 @@
         <v>Chair No - 229</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="14.5">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>294</v>
       </c>
@@ -9153,7 +9045,7 @@
         <v>Chair No - 230</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="14.5">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>295</v>
       </c>
@@ -9174,7 +9066,7 @@
         <v>Chair No - 231</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="14.5">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>296</v>
       </c>
@@ -9195,7 +9087,7 @@
         <v>Chair No - 232</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="14.5">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>297</v>
       </c>
@@ -9216,7 +9108,7 @@
         <v>Chair No - 233</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="14.5">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>298</v>
       </c>
@@ -9237,7 +9129,7 @@
         <v>Chair No - 234</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="14.5">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>299</v>
       </c>
@@ -9258,7 +9150,7 @@
         <v>Chair No - 235</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="14.5">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>300</v>
       </c>
@@ -9279,7 +9171,7 @@
         <v>Chair No - 236</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="14.5">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>301</v>
       </c>
@@ -9300,7 +9192,7 @@
         <v>Chair No - 237</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="14.5">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>302</v>
       </c>
@@ -9321,7 +9213,7 @@
         <v>Chair No - 238</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="14.5">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>303</v>
       </c>
@@ -9342,7 +9234,7 @@
         <v>Chair No - 239</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="14.5">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>304</v>
       </c>
@@ -9363,7 +9255,7 @@
         <v>Chair No - 240</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="14.5">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>307</v>
       </c>
@@ -9384,7 +9276,7 @@
         <v>Chair No - 241</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="14.5">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>310</v>
       </c>
@@ -9405,7 +9297,7 @@
         <v>Chair No - 242</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="14.5">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>311</v>
       </c>
@@ -9426,7 +9318,7 @@
         <v>Chair No - 243</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="14.5">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>312</v>
       </c>
@@ -9447,7 +9339,7 @@
         <v>Chair No - 244</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="14.5">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>313</v>
       </c>
@@ -9468,7 +9360,7 @@
         <v>Chair No - 245</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="14.5">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>314</v>
       </c>
@@ -9489,7 +9381,7 @@
         <v>Chair No - 246</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="14.5">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>315</v>
       </c>
@@ -9510,7 +9402,7 @@
         <v>Chair No - 247</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="14.5">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>316</v>
       </c>
@@ -9531,7 +9423,7 @@
         <v>Chair No - 248</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="14.5">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>317</v>
       </c>
@@ -9552,7 +9444,7 @@
         <v>Chair No - 249</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="14.5">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>318</v>
       </c>
@@ -9573,7 +9465,7 @@
         <v>Chair No - 250</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="14.5">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>319</v>
       </c>
@@ -9594,7 +9486,7 @@
         <v>Chair No - 251</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="14.5">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>320</v>
       </c>
@@ -9615,7 +9507,7 @@
         <v>Chair No - 252</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="14.5">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>321</v>
       </c>
@@ -9636,7 +9528,7 @@
         <v>Chair No - 253</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="14.5">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>322</v>
       </c>
@@ -9657,7 +9549,7 @@
         <v>Chair No - 254</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="14.5">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>324</v>
       </c>
@@ -9678,7 +9570,7 @@
         <v>Chair No - 255</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="14.5">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>325</v>
       </c>
@@ -9699,7 +9591,7 @@
         <v>Chair No - 256</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="14.5">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>326</v>
       </c>
@@ -9716,11 +9608,11 @@
         <v>257</v>
       </c>
       <c r="F258" s="3" t="str">
-        <f t="shared" si="4" ref="F258:F321">CONCATENATE(D258," No - ",E258)</f>
+        <f t="shared" ref="F258:F321" si="4">CONCATENATE(D258," No - ",E258)</f>
         <v>Chair No - 257</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="14.5">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>329</v>
       </c>
@@ -9741,7 +9633,7 @@
         <v>Chair No - 258</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="14.5">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>330</v>
       </c>
@@ -9762,7 +9654,7 @@
         <v>Chair No - 259</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="14.5">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>331</v>
       </c>
@@ -9783,7 +9675,7 @@
         <v>Chair No - 260</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="14.5">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>332</v>
       </c>
@@ -9804,7 +9696,7 @@
         <v>Chair No - 261</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="14.5">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>333</v>
       </c>
@@ -9825,7 +9717,7 @@
         <v>Chair No - 262</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="14.5">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>334</v>
       </c>
@@ -9846,7 +9738,7 @@
         <v>Chair No - 263</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="14.5">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>335</v>
       </c>
@@ -9867,7 +9759,7 @@
         <v>Chair No - 264</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="14.5">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>336</v>
       </c>
@@ -9888,7 +9780,7 @@
         <v>Chair No - 265</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="14.5">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>337</v>
       </c>
@@ -9909,7 +9801,7 @@
         <v>Chair No - 266</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="14.5">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>338</v>
       </c>
@@ -9930,7 +9822,7 @@
         <v>Chair No - 267</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="14.5">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>339</v>
       </c>
@@ -9951,7 +9843,7 @@
         <v>Chair No - 268</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="14.5">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>340</v>
       </c>
@@ -9972,7 +9864,7 @@
         <v>Chair No - 269</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="14.5">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>341</v>
       </c>
@@ -9993,7 +9885,7 @@
         <v>Chair No - 270</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="14.5">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>342</v>
       </c>
@@ -10014,7 +9906,7 @@
         <v>Chair No - 271</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="14.5">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>343</v>
       </c>
@@ -10035,7 +9927,7 @@
         <v>Chair No - 272</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="14.5">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>344</v>
       </c>
@@ -10056,7 +9948,7 @@
         <v>Chair No - 273</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="14.5">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>345</v>
       </c>
@@ -10077,7 +9969,7 @@
         <v>Chair No - 274</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="14.5">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>346</v>
       </c>
@@ -10098,7 +9990,7 @@
         <v>Chair No - 275</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="14.5">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>347</v>
       </c>
@@ -10119,7 +10011,7 @@
         <v>Chair No - 276</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="14.5">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>348</v>
       </c>
@@ -10140,7 +10032,7 @@
         <v>Chair No - 277</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="14.5">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>349</v>
       </c>
@@ -10161,7 +10053,7 @@
         <v>Chair No - 278</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="14.5">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>350</v>
       </c>
@@ -10182,7 +10074,7 @@
         <v>Chair No - 279</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="14.5">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>351</v>
       </c>
@@ -10203,7 +10095,7 @@
         <v>Chair No - 280</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="14.5">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>352</v>
       </c>
@@ -10224,7 +10116,7 @@
         <v>Chair No - 281</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="14.5">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>353</v>
       </c>
@@ -10245,7 +10137,7 @@
         <v>Chair No - 282</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="14.5">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>355</v>
       </c>
@@ -10266,7 +10158,7 @@
         <v>Chair No - 283</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="14.5">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>356</v>
       </c>
@@ -10287,7 +10179,7 @@
         <v>Chair No - 284</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="14.5">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>357</v>
       </c>
@@ -10308,7 +10200,7 @@
         <v>Chair No - 285</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="14.5">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>359</v>
       </c>
@@ -10329,7 +10221,7 @@
         <v>Chair No - 286</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="14.5">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>360</v>
       </c>
@@ -10350,7 +10242,7 @@
         <v>Chair No - 287</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="14.5">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>361</v>
       </c>
@@ -10371,7 +10263,7 @@
         <v>Chair No - 288</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="14.5">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>362</v>
       </c>
@@ -10392,7 +10284,7 @@
         <v>Chair No - 289</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="14.5">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>363</v>
       </c>
@@ -10413,7 +10305,7 @@
         <v>Chair No - 290</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="14.5">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>364</v>
       </c>
@@ -10434,7 +10326,7 @@
         <v>Chair No - 291</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="14.5">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>365</v>
       </c>
@@ -10455,7 +10347,7 @@
         <v>Chair No - 292</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="14.5">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>367</v>
       </c>
@@ -10476,7 +10368,7 @@
         <v>Chair No - 293</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="14.5">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>368</v>
       </c>
@@ -10497,7 +10389,7 @@
         <v>Chair No - 294</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="14.5">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>370</v>
       </c>
@@ -10518,7 +10410,7 @@
         <v>Chair No - 295</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="14.5">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>371</v>
       </c>
@@ -10539,7 +10431,7 @@
         <v>Chair No - 296</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="14.5">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>373</v>
       </c>
@@ -10560,7 +10452,7 @@
         <v>Chair No - 297</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="14.5">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>374</v>
       </c>
@@ -10581,7 +10473,7 @@
         <v>Chair No - 298</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="14.5">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>375</v>
       </c>
@@ -10602,7 +10494,7 @@
         <v>Chair No - 299</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="14.5">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>376</v>
       </c>
@@ -10623,7 +10515,7 @@
         <v>Chair No - 300</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="14.5">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>377</v>
       </c>
@@ -10644,7 +10536,7 @@
         <v>Chair No - 301</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="14.5">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>378</v>
       </c>
@@ -10665,7 +10557,7 @@
         <v>Chair No - 302</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="14.5">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>380</v>
       </c>
@@ -10686,7 +10578,7 @@
         <v>Chair No - 303</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="14.5">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>381</v>
       </c>
@@ -10707,7 +10599,7 @@
         <v>Chair No - 304</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="14.5">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>382</v>
       </c>
@@ -10728,7 +10620,7 @@
         <v>Chair No - 305</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="14.5">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>383</v>
       </c>
@@ -10749,7 +10641,7 @@
         <v>Chair No - 306</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="14.5">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
         <v>384</v>
       </c>
@@ -10770,7 +10662,7 @@
         <v>Chair No - 307</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="14.5">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>386</v>
       </c>
@@ -10791,7 +10683,7 @@
         <v>Chair No - 308</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="14.5">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
         <v>387</v>
       </c>
@@ -10812,7 +10704,7 @@
         <v>Chair No - 309</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="14.5">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>388</v>
       </c>
@@ -10833,7 +10725,7 @@
         <v>Chair No - 310</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="14.5">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
         <v>389</v>
       </c>
@@ -10854,7 +10746,7 @@
         <v>Chair No - 311</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="14.5">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <v>390</v>
       </c>
@@ -10875,7 +10767,7 @@
         <v>Chair No - 312</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="14.5">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
         <v>391</v>
       </c>
@@ -10896,7 +10788,7 @@
         <v>Chair No - 313</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="14.5">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>392</v>
       </c>
@@ -10917,7 +10809,7 @@
         <v>Chair No - 314</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="14.5">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
         <v>393</v>
       </c>
@@ -10938,7 +10830,7 @@
         <v>Chair No - 315</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="14.5">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <v>394</v>
       </c>
@@ -10959,7 +10851,7 @@
         <v>Chair No - 316</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="14.5">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
         <v>395</v>
       </c>
@@ -10980,7 +10872,7 @@
         <v>Chair No - 317</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="14.5">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <v>396</v>
       </c>
@@ -11001,7 +10893,7 @@
         <v>Chair No - 318</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="14.5">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="3">
         <v>399</v>
       </c>
@@ -11022,7 +10914,7 @@
         <v>Chair No - 319</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="14.5">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
         <v>400</v>
       </c>
@@ -11043,7 +10935,7 @@
         <v>Chair No - 320</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="14.5">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="3">
         <v>401</v>
       </c>
@@ -11060,11 +10952,11 @@
         <v>321</v>
       </c>
       <c r="F322" s="3" t="str">
-        <f t="shared" si="5" ref="F322:F385">CONCATENATE(D322," No - ",E322)</f>
+        <f t="shared" ref="F322:F385" si="5">CONCATENATE(D322," No - ",E322)</f>
         <v>Chair No - 321</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="14.5">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
         <v>403</v>
       </c>
@@ -11085,7 +10977,7 @@
         <v>Chair No - 322</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="14.5">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="3">
         <v>405</v>
       </c>
@@ -11106,7 +10998,7 @@
         <v>Chair No - 323</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="14.5">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
         <v>407</v>
       </c>
@@ -11127,7 +11019,7 @@
         <v>Chair No - 324</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="14.5">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="3">
         <v>410</v>
       </c>
@@ -11148,7 +11040,7 @@
         <v>Chair No - 325</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="14.5">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
         <v>411</v>
       </c>
@@ -11169,7 +11061,7 @@
         <v>Chair No - 326</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="14.5">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
         <v>413</v>
       </c>
@@ -11190,7 +11082,7 @@
         <v>Chair No - 327</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="14.5">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
         <v>415</v>
       </c>
@@ -11211,7 +11103,7 @@
         <v>Chair No - 328</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="14.5">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="3">
         <v>417</v>
       </c>
@@ -11232,7 +11124,7 @@
         <v>Chair No - 329</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="14.5">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
         <v>418</v>
       </c>
@@ -11253,7 +11145,7 @@
         <v>Chair No - 330</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="14.5">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="3">
         <v>419</v>
       </c>
@@ -11274,7 +11166,7 @@
         <v>Chair No - 331</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="14.5">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
         <v>420</v>
       </c>
@@ -11295,7 +11187,7 @@
         <v>Chair No - 332</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="14.5">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
         <v>421</v>
       </c>
@@ -11316,7 +11208,7 @@
         <v>Chair No - 333</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="14.5">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
         <v>422</v>
       </c>
@@ -11337,7 +11229,7 @@
         <v>Chair No - 334</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="14.5">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
         <v>424</v>
       </c>
@@ -11358,7 +11250,7 @@
         <v>Chair No - 335</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="14.5">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
         <v>426</v>
       </c>
@@ -11379,7 +11271,7 @@
         <v>Chair No - 336</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="14.5">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
         <v>427</v>
       </c>
@@ -11400,7 +11292,7 @@
         <v>Chair No - 337</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="14.5">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
         <v>428</v>
       </c>
@@ -11421,7 +11313,7 @@
         <v>Chair No - 338</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="14.5">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
         <v>430</v>
       </c>
@@ -11442,7 +11334,7 @@
         <v>Chair No - 339</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="14.5">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
         <v>431</v>
       </c>
@@ -11463,7 +11355,7 @@
         <v>Chair No - 340</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="14.5">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
         <v>432</v>
       </c>
@@ -11484,7 +11376,7 @@
         <v>Chair No - 341</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="14.5">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
         <v>434</v>
       </c>
@@ -11505,7 +11397,7 @@
         <v>Chair No - 342</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="14.5">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="3">
         <v>436</v>
       </c>
@@ -11526,7 +11418,7 @@
         <v>Chair No - 343</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="14.5">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
         <v>438</v>
       </c>
@@ -11547,7 +11439,7 @@
         <v>Chair No - 344</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="14.5">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="3">
         <v>439</v>
       </c>
@@ -11568,7 +11460,7 @@
         <v>Chair No - 345</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="14.5">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
         <v>440</v>
       </c>
@@ -11589,7 +11481,7 @@
         <v>Chair No - 346</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="14.5">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="3">
         <v>444</v>
       </c>
@@ -11610,7 +11502,7 @@
         <v>Chair No - 347</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="14.5">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
         <v>445</v>
       </c>
@@ -11631,7 +11523,7 @@
         <v>Chair No - 348</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="14.5">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
         <v>446</v>
       </c>
@@ -11652,7 +11544,7 @@
         <v>Chair No - 349</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="14.5">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
         <v>447</v>
       </c>
@@ -11673,7 +11565,7 @@
         <v>Chair No - 350</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="14.5">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="3">
         <v>448</v>
       </c>
@@ -11694,7 +11586,7 @@
         <v>Chair No - 351</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="14.5">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
         <v>449</v>
       </c>
@@ -11715,7 +11607,7 @@
         <v>Chair No - 352</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="14.5">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="3">
         <v>450</v>
       </c>
@@ -11736,7 +11628,7 @@
         <v>Chair No - 353</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="14.5">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
         <v>451</v>
       </c>
@@ -11757,7 +11649,7 @@
         <v>Chair No - 354</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="14.5">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="3">
         <v>453</v>
       </c>
@@ -11778,7 +11670,7 @@
         <v>Chair No - 355</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="14.5">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
         <v>454</v>
       </c>
@@ -11799,7 +11691,7 @@
         <v>Chair No - 356</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="14.5">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="3">
         <v>455</v>
       </c>
@@ -11820,7 +11712,7 @@
         <v>Chair No - 357</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="14.5">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
         <v>456</v>
       </c>
@@ -11841,7 +11733,7 @@
         <v>Chair No - 358</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="14.5">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="3">
         <v>457</v>
       </c>
@@ -11862,7 +11754,7 @@
         <v>Chair No - 359</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="14.5">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
         <v>460</v>
       </c>
@@ -11883,7 +11775,7 @@
         <v>Chair No - 360</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="14.5">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="3">
         <v>461</v>
       </c>
@@ -11904,7 +11796,7 @@
         <v>Chair No - 361</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="14.5">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
         <v>462</v>
       </c>
@@ -11925,7 +11817,7 @@
         <v>Chair No - 362</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="14.5">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="3">
         <v>463</v>
       </c>
@@ -11946,7 +11838,7 @@
         <v>Chair No - 363</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="14.5">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
         <v>465</v>
       </c>
@@ -11967,7 +11859,7 @@
         <v>Chair No - 364</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="14.5">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="3">
         <v>466</v>
       </c>
@@ -11988,7 +11880,7 @@
         <v>Chair No - 365</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="14.5">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
         <v>467</v>
       </c>
@@ -12009,7 +11901,7 @@
         <v>Chair No - 366</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="14.5">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="3">
         <v>469</v>
       </c>
@@ -12030,7 +11922,7 @@
         <v>Chair No - 367</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="14.5">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
         <v>470</v>
       </c>
@@ -12051,7 +11943,7 @@
         <v>Chair No - 368</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="14.5">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="3">
         <v>471</v>
       </c>
@@ -12072,7 +11964,7 @@
         <v>Chair No - 369</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="14.5">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
         <v>472</v>
       </c>
@@ -12093,7 +11985,7 @@
         <v>Chair No - 370</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="14.5">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="3">
         <v>475</v>
       </c>
@@ -12114,7 +12006,7 @@
         <v>Chair No - 371</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="14.5">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
         <v>476</v>
       </c>
@@ -12135,7 +12027,7 @@
         <v>Chair No - 372</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="14.5">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="3">
         <v>478</v>
       </c>
@@ -12156,7 +12048,7 @@
         <v>Chair No - 373</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="14.5">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
         <v>479</v>
       </c>
@@ -12177,7 +12069,7 @@
         <v>Chair No - 374</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="14.5">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="3">
         <v>480</v>
       </c>
@@ -12198,7 +12090,7 @@
         <v>Chair No - 375</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="14.5">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
         <v>481</v>
       </c>
@@ -12219,7 +12111,7 @@
         <v>Chair No - 376</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="14.5">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="3">
         <v>482</v>
       </c>
@@ -12240,7 +12132,7 @@
         <v>Chair No - 377</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="14.5">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="3">
         <v>483</v>
       </c>
@@ -12261,7 +12153,7 @@
         <v>Chair No - 378</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="14.5">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="3">
         <v>484</v>
       </c>
@@ -12282,7 +12174,7 @@
         <v>Chair No - 379</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="14.5">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="3">
         <v>485</v>
       </c>
@@ -12303,7 +12195,7 @@
         <v>Chair No - 380</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="14.5">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="3">
         <v>486</v>
       </c>
@@ -12324,7 +12216,7 @@
         <v>Chair No - 381</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="14.5">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="3">
         <v>487</v>
       </c>
@@ -12345,7 +12237,7 @@
         <v>Chair No - 382</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="14.5">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="3">
         <v>488</v>
       </c>
@@ -12366,7 +12258,7 @@
         <v>Chair No - 383</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="14.5">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
         <v>489</v>
       </c>
@@ -12387,7 +12279,7 @@
         <v>Chair No - 384</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="14.5">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="3">
         <v>490</v>
       </c>
@@ -12404,11 +12296,11 @@
         <v>385</v>
       </c>
       <c r="F386" s="3" t="str">
-        <f t="shared" si="6" ref="F386:F449">CONCATENATE(D386," No - ",E386)</f>
+        <f t="shared" ref="F386:F449" si="6">CONCATENATE(D386," No - ",E386)</f>
         <v>Chair No - 385</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="14.5">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
         <v>491</v>
       </c>
@@ -12429,7 +12321,7 @@
         <v>Chair No - 386</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="14.5">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="3">
         <v>492</v>
       </c>
@@ -12450,7 +12342,7 @@
         <v>Chair No - 387</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="14.5">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
         <v>493</v>
       </c>
@@ -12471,7 +12363,7 @@
         <v>Chair No - 388</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="14.5">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="3">
         <v>494</v>
       </c>
@@ -12492,7 +12384,7 @@
         <v>Chair No - 389</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="14.5">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
         <v>495</v>
       </c>
@@ -12513,7 +12405,7 @@
         <v>Chair No - 390</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="14.5">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="3">
         <v>496</v>
       </c>
@@ -12534,7 +12426,7 @@
         <v>Chair No - 391</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="14.5">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
         <v>497</v>
       </c>
@@ -12555,7 +12447,7 @@
         <v>Chair No - 392</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="14.5">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="3">
         <v>498</v>
       </c>
@@ -12576,7 +12468,7 @@
         <v>Chair No - 393</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="14.5">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
         <v>499</v>
       </c>
@@ -12597,7 +12489,7 @@
         <v>Chair No - 394</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="14.5">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="3">
         <v>500</v>
       </c>
@@ -12618,7 +12510,7 @@
         <v>Chair No - 395</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="14.5">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
         <v>501</v>
       </c>
@@ -12639,7 +12531,7 @@
         <v>Chair No - 396</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="14.5">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="3">
         <v>502</v>
       </c>
@@ -12660,7 +12552,7 @@
         <v>Chair No - 397</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="14.5">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="3">
         <v>503</v>
       </c>
@@ -12681,7 +12573,7 @@
         <v>Chair No - 398</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="14.5">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="3">
         <v>504</v>
       </c>
@@ -12702,7 +12594,7 @@
         <v>Chair No - 399</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="14.5">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="3">
         <v>505</v>
       </c>
@@ -12723,7 +12615,7 @@
         <v>Chair No - 400</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="14.5">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="3">
         <v>506</v>
       </c>
@@ -12744,7 +12636,7 @@
         <v>Chair No - 401</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="14.5">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="3">
         <v>507</v>
       </c>
@@ -12765,7 +12657,7 @@
         <v>Chair No - 402</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="14.5">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="3">
         <v>508</v>
       </c>
@@ -12786,7 +12678,7 @@
         <v>Chair No - 403</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="14.5">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="3">
         <v>509</v>
       </c>
@@ -12807,7 +12699,7 @@
         <v>Chair No - 404</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="14.5">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="3">
         <v>510</v>
       </c>
@@ -12828,7 +12720,7 @@
         <v>Chair No - 405</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="14.5">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="3">
         <v>511</v>
       </c>
@@ -12849,7 +12741,7 @@
         <v>Chair No - 406</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="14.5">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="3">
         <v>512</v>
       </c>
@@ -12870,7 +12762,7 @@
         <v>Chair No - 407</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="14.5">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="3">
         <v>513</v>
       </c>
@@ -12891,7 +12783,7 @@
         <v>Chair No - 408</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="14.5">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="3">
         <v>514</v>
       </c>
@@ -12912,7 +12804,7 @@
         <v>Chair No - 409</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="14.5">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="3">
         <v>515</v>
       </c>
@@ -12933,7 +12825,7 @@
         <v>Chair No - 410</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="14.5">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="3">
         <v>516</v>
       </c>
@@ -12954,7 +12846,7 @@
         <v>Chair No - 411</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="14.5">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="3">
         <v>517</v>
       </c>
@@ -12975,7 +12867,7 @@
         <v>Chair No - 412</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="14.5">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="3">
         <v>518</v>
       </c>
@@ -12996,7 +12888,7 @@
         <v>Chair No - 413</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="14.5">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="3">
         <v>519</v>
       </c>
@@ -13017,7 +12909,7 @@
         <v>Chair No - 414</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="14.5">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="3">
         <v>520</v>
       </c>
@@ -13038,7 +12930,7 @@
         <v>Chair No - 415</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="14.5">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="3">
         <v>521</v>
       </c>
@@ -13059,7 +12951,7 @@
         <v>Chair No - 416</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="14.5">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="3">
         <v>522</v>
       </c>
@@ -13080,7 +12972,7 @@
         <v>Chair No - 417</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="14.5">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="3">
         <v>523</v>
       </c>
@@ -13101,7 +12993,7 @@
         <v>Chair No - 418</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="14.5">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="3">
         <v>524</v>
       </c>
@@ -13122,7 +13014,7 @@
         <v>Chair No - 419</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="14.5">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="3">
         <v>525</v>
       </c>
@@ -13143,7 +13035,7 @@
         <v>Chair No - 420</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="14.5">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="3">
         <v>526</v>
       </c>
@@ -13164,7 +13056,7 @@
         <v>Chair No - 421</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="14.5">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="3">
         <v>527</v>
       </c>
@@ -13185,7 +13077,7 @@
         <v>Chair No - 422</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="14.5">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="3">
         <v>528</v>
       </c>
@@ -13206,7 +13098,7 @@
         <v>Chair No - 423</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="14.5">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="3">
         <v>529</v>
       </c>
@@ -13227,7 +13119,7 @@
         <v>Chair No - 424</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="14.5">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="3">
         <v>530</v>
       </c>
@@ -13248,7 +13140,7 @@
         <v>Chair No - 425</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="14.5">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="3">
         <v>531</v>
       </c>
@@ -13269,7 +13161,7 @@
         <v>Chair No - 426</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="14.5">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="3">
         <v>532</v>
       </c>
@@ -13290,7 +13182,7 @@
         <v>Chair No - 427</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="14.5">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="3">
         <v>533</v>
       </c>
@@ -13311,7 +13203,7 @@
         <v>Chair No - 428</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="14.5">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="3">
         <v>534</v>
       </c>
@@ -13332,7 +13224,7 @@
         <v>Chair No - 429</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="14.5">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="3">
         <v>535</v>
       </c>
@@ -13353,7 +13245,7 @@
         <v>Chair No - 430</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="14.5">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="3">
         <v>536</v>
       </c>
@@ -13374,7 +13266,7 @@
         <v>Chair No - 431</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="14.5">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="3">
         <v>537</v>
       </c>
@@ -13395,7 +13287,7 @@
         <v>Chair No - 432</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="14.5">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="3">
         <v>538</v>
       </c>
@@ -13416,7 +13308,7 @@
         <v>Chair No - 433</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="14.5">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="3">
         <v>539</v>
       </c>
@@ -13437,7 +13329,7 @@
         <v>Chair No - 434</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="14.5">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="3">
         <v>540</v>
       </c>
@@ -13458,7 +13350,7 @@
         <v>Chair No - 435</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="14.5">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="3">
         <v>541</v>
       </c>
@@ -13479,7 +13371,7 @@
         <v>Chair No - 436</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="14.5">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="3">
         <v>542</v>
       </c>
@@ -13500,7 +13392,7 @@
         <v>Chair No - 437</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="14.5">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="3">
         <v>543</v>
       </c>
@@ -13521,7 +13413,7 @@
         <v>Chair No - 438</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="14.5">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="3">
         <v>544</v>
       </c>
@@ -13542,7 +13434,7 @@
         <v>Chair No - 439</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="14.5">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="3">
         <v>545</v>
       </c>
@@ -13563,7 +13455,7 @@
         <v>Chair No - 440</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="14.5">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="3">
         <v>546</v>
       </c>
@@ -13584,7 +13476,7 @@
         <v>Chair No - 441</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="14.5">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="3">
         <v>547</v>
       </c>
@@ -13605,7 +13497,7 @@
         <v>Chair No - 442</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="14.5">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="3">
         <v>548</v>
       </c>
@@ -13626,7 +13518,7 @@
         <v>Chair No - 443</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="14.5">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="3">
         <v>549</v>
       </c>
@@ -13647,7 +13539,7 @@
         <v>Chair No - 444</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="14.5">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="3">
         <v>550</v>
       </c>
@@ -13668,7 +13560,7 @@
         <v>Chair No - 445</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="14.5">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="3">
         <v>551</v>
       </c>
@@ -13689,7 +13581,7 @@
         <v>Chair No - 446</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="14.5">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="3">
         <v>552</v>
       </c>
@@ -13710,7 +13602,7 @@
         <v>Chair No - 447</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="14.5">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="3">
         <v>553</v>
       </c>
@@ -13731,7 +13623,7 @@
         <v>Chair No - 448</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="14.5">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="3">
         <v>554</v>
       </c>
@@ -13748,11 +13640,11 @@
         <v>449</v>
       </c>
       <c r="F450" s="3" t="str">
-        <f t="shared" si="7" ref="F450:F513">CONCATENATE(D450," No - ",E450)</f>
+        <f t="shared" ref="F450:F513" si="7">CONCATENATE(D450," No - ",E450)</f>
         <v>Chair No - 449</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="14.5">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="3">
         <v>566</v>
       </c>
@@ -13773,7 +13665,7 @@
         <v>Chair No - 450</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="14.5">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="3">
         <v>567</v>
       </c>
@@ -13794,7 +13686,7 @@
         <v>Chair No - 451</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="14.5">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="3">
         <v>568</v>
       </c>
@@ -13815,12 +13707,12 @@
         <v>Chair No - 452</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="14.5">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="3">
         <v>569</v>
       </c>
-      <c r="B454" s="3" t="e">
-        <v>#N/A</v>
+      <c r="B454" s="3" t="s">
+        <v>1213</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>910</v>
@@ -13836,11 +13728,11 @@
         <v>Chair No - 453</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="14.5">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="3">
         <v>570</v>
       </c>
-      <c r="B455" s="12" t="s">
+      <c r="B455" s="3" t="s">
         <v>911</v>
       </c>
       <c r="C455" s="6" t="s">
@@ -13857,11 +13749,11 @@
         <v>Chair No - 454</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="14.5">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="3">
         <v>571</v>
       </c>
-      <c r="B456" s="13" t="s">
+      <c r="B456" s="3" t="s">
         <v>913</v>
       </c>
       <c r="C456" s="6" t="s">
@@ -13878,11 +13770,11 @@
         <v>Chair No - 455</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="14.5">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="3">
         <v>572</v>
       </c>
-      <c r="B457" s="14" t="s">
+      <c r="B457" s="12" t="s">
         <v>915</v>
       </c>
       <c r="C457" s="6" t="s">
@@ -13899,11 +13791,11 @@
         <v>Chair No - 456</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="14.5">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="3">
         <v>573</v>
       </c>
-      <c r="B458" s="15" t="s">
+      <c r="B458" s="13" t="s">
         <v>917</v>
       </c>
       <c r="C458" s="6" t="s">
@@ -13920,7 +13812,7 @@
         <v>Chair No - 457</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="14.5">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="3">
         <v>574</v>
       </c>
@@ -13941,7 +13833,7 @@
         <v>Chair No - 458</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="14.5">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="3">
         <v>575</v>
       </c>
@@ -13962,7 +13854,7 @@
         <v>Chair No - 459</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="14.5">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="3">
         <v>576</v>
       </c>
@@ -13983,7 +13875,7 @@
         <v>Chair No - 460</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="14.5">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="3">
         <v>577</v>
       </c>
@@ -14004,7 +13896,7 @@
         <v>Chair No - 461</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="14.5">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="3">
         <v>578</v>
       </c>
@@ -14025,7 +13917,7 @@
         <v>Chair No - 462</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="14.5">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="3">
         <v>579</v>
       </c>
@@ -14046,7 +13938,7 @@
         <v>Chair No - 463</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="14.5">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="3">
         <v>580</v>
       </c>
@@ -14067,7 +13959,7 @@
         <v>Chair No - 464</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="14.5">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="3">
         <v>581</v>
       </c>
@@ -14088,7 +13980,7 @@
         <v>Chair No - 465</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="14.5">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="3">
         <v>582</v>
       </c>
@@ -14109,7 +14001,7 @@
         <v>Chair No - 466</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="14.5">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="3">
         <v>583</v>
       </c>
@@ -14130,7 +14022,7 @@
         <v>Chair No - 467</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="14.5">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="3">
         <v>584</v>
       </c>
@@ -14151,7 +14043,7 @@
         <v>Chair No - 468</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="14.5">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="3">
         <v>585</v>
       </c>
@@ -14172,7 +14064,7 @@
         <v>Chair No - 469</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="14.5">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="3">
         <v>586</v>
       </c>
@@ -14193,7 +14085,7 @@
         <v>Chair No - 470</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="14.5">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="3">
         <v>587</v>
       </c>
@@ -14214,7 +14106,7 @@
         <v>Chair No - 471</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="14.5">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="3">
         <v>588</v>
       </c>
@@ -14235,7 +14127,7 @@
         <v>Chair No - 472</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="14.5">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="3">
         <v>589</v>
       </c>
@@ -14256,7 +14148,7 @@
         <v>Chair No - 473</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="14.5">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="3">
         <v>590</v>
       </c>
@@ -14277,7 +14169,7 @@
         <v>Chair No - 474</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="14.5">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="3">
         <v>591</v>
       </c>
@@ -14298,7 +14190,7 @@
         <v>Chair No - 475</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="14.5">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="3">
         <v>592</v>
       </c>
@@ -14319,11 +14211,11 @@
         <v>Chair No - 476</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="14.5">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="3">
         <v>593</v>
       </c>
-      <c r="B478" s="16" t="s">
+      <c r="B478" s="14" t="s">
         <v>957</v>
       </c>
       <c r="C478" s="6" t="s">
@@ -14340,7 +14232,7 @@
         <v>Chair No - 477</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="14.5">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="3">
         <v>594</v>
       </c>
@@ -14361,7 +14253,7 @@
         <v>Chair No - 478</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="14.5">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="3">
         <v>595</v>
       </c>
@@ -14382,7 +14274,7 @@
         <v>Chair No - 479</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="14.5">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="3">
         <v>596</v>
       </c>
@@ -14403,7 +14295,7 @@
         <v>Chair No - 480</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="14.5">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="3">
         <v>2</v>
       </c>
@@ -14424,7 +14316,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="14.5">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="3">
         <v>15</v>
       </c>
@@ -14445,7 +14337,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="14.5">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="3">
         <v>19</v>
       </c>
@@ -14466,7 +14358,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="14.5">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="3">
         <v>22</v>
       </c>
@@ -14487,7 +14379,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="14.5">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="3">
         <v>31</v>
       </c>
@@ -14508,7 +14400,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="14.5">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="3">
         <v>43</v>
       </c>
@@ -14529,7 +14421,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="14.5">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="3">
         <v>47</v>
       </c>
@@ -14550,7 +14442,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="14.5">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="3">
         <v>48</v>
       </c>
@@ -14571,7 +14463,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="14.5">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="3">
         <v>52</v>
       </c>
@@ -14592,7 +14484,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="14.5">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="3">
         <v>53</v>
       </c>
@@ -14613,7 +14505,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="14.5">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="3">
         <v>54</v>
       </c>
@@ -14634,7 +14526,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="14.5">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="3">
         <v>57</v>
       </c>
@@ -14655,7 +14547,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="14.5">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="3">
         <v>58</v>
       </c>
@@ -14676,7 +14568,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="14.5">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="3">
         <v>61</v>
       </c>
@@ -14697,7 +14589,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="14.5">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="3">
         <v>67</v>
       </c>
@@ -14718,7 +14610,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="14.5">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="3">
         <v>68</v>
       </c>
@@ -14739,7 +14631,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="14.5">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="3">
         <v>69</v>
       </c>
@@ -14760,7 +14652,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="14.5">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="3">
         <v>72</v>
       </c>
@@ -14781,7 +14673,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="14.5">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="3">
         <v>83</v>
       </c>
@@ -14802,7 +14694,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="14.5">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="3">
         <v>84</v>
       </c>
@@ -14823,7 +14715,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="14.5">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="3">
         <v>90</v>
       </c>
@@ -14844,7 +14736,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="14.5">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="3">
         <v>92</v>
       </c>
@@ -14865,7 +14757,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="14.5">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="3">
         <v>99</v>
       </c>
@@ -14886,7 +14778,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="14.5">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="3">
         <v>102</v>
       </c>
@@ -14907,7 +14799,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="14.5">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="3">
         <v>106</v>
       </c>
@@ -14928,7 +14820,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="14.5">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="3">
         <v>111</v>
       </c>
@@ -14949,7 +14841,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="14.5">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="3">
         <v>112</v>
       </c>
@@ -14970,7 +14862,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="14.5">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="3">
         <v>113</v>
       </c>
@@ -14991,7 +14883,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="14.5">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="3">
         <v>114</v>
       </c>
@@ -15012,7 +14904,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="14.5">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="3">
         <v>116</v>
       </c>
@@ -15033,7 +14925,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="14.5">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="3">
         <v>117</v>
       </c>
@@ -15054,7 +14946,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="14.5">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="3">
         <v>123</v>
       </c>
@@ -15075,7 +14967,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="14.5">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="3">
         <v>125</v>
       </c>
@@ -15092,11 +14984,11 @@
         <v>5</v>
       </c>
       <c r="F514" s="3" t="str">
-        <f t="shared" si="8" ref="F514:F577">CONCATENATE(D514," No - ",E514)</f>
+        <f t="shared" ref="F514:F577" si="8">CONCATENATE(D514," No - ",E514)</f>
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="14.5">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="3">
         <v>133</v>
       </c>
@@ -15117,7 +15009,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="14.5">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="3">
         <v>134</v>
       </c>
@@ -15138,7 +15030,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="14.5">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="3">
         <v>140</v>
       </c>
@@ -15159,7 +15051,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="14.5">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="3">
         <v>145</v>
       </c>
@@ -15180,7 +15072,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="14.5">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="3">
         <v>146</v>
       </c>
@@ -15201,7 +15093,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="14.5">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="3">
         <v>150</v>
       </c>
@@ -15222,7 +15114,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="14.5">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="3">
         <v>151</v>
       </c>
@@ -15243,7 +15135,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="14.5">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="3">
         <v>154</v>
       </c>
@@ -15264,7 +15156,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="14.5">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="3">
         <v>156</v>
       </c>
@@ -15285,7 +15177,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="14.5">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="3">
         <v>157</v>
       </c>
@@ -15306,7 +15198,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="14.5">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="3">
         <v>164</v>
       </c>
@@ -15327,7 +15219,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="14.5">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="3">
         <v>165</v>
       </c>
@@ -15348,7 +15240,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="14.5">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="3">
         <v>169</v>
       </c>
@@ -15369,7 +15261,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="14.5">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="3">
         <v>171</v>
       </c>
@@ -15390,7 +15282,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="14.5">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="3">
         <v>173</v>
       </c>
@@ -15411,7 +15303,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="14.5">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="3">
         <v>175</v>
       </c>
@@ -15432,7 +15324,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="14.5">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="3">
         <v>180</v>
       </c>
@@ -15453,7 +15345,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="14.5">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" s="3">
         <v>183</v>
       </c>
@@ -15474,7 +15366,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="14.5">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" s="3">
         <v>189</v>
       </c>
@@ -15495,7 +15387,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="14.5">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" s="3">
         <v>191</v>
       </c>
@@ -15516,7 +15408,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="14.5">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" s="3">
         <v>200</v>
       </c>
@@ -15537,7 +15429,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="14.5">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" s="3">
         <v>215</v>
       </c>
@@ -15558,7 +15450,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="14.5">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" s="3">
         <v>217</v>
       </c>
@@ -15579,7 +15471,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="14.5">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" s="3">
         <v>235</v>
       </c>
@@ -15600,7 +15492,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="14.5">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" s="3">
         <v>237</v>
       </c>
@@ -15621,7 +15513,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="14.5">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" s="3">
         <v>239</v>
       </c>
@@ -15642,7 +15534,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="14.5">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" s="3">
         <v>251</v>
       </c>
@@ -15663,7 +15555,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="14.5">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" s="3">
         <v>252</v>
       </c>
@@ -15684,7 +15576,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="14.5">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" s="3">
         <v>277</v>
       </c>
@@ -15705,7 +15597,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="14.5">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" s="3">
         <v>292</v>
       </c>
@@ -15726,7 +15618,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="14.5">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" s="3">
         <v>293</v>
       </c>
@@ -15747,7 +15639,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="14.5">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" s="3">
         <v>305</v>
       </c>
@@ -15768,7 +15660,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="14.5">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" s="3">
         <v>306</v>
       </c>
@@ -15789,7 +15681,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="14.5">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" s="3">
         <v>308</v>
       </c>
@@ -15810,7 +15702,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="14.5">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" s="3">
         <v>309</v>
       </c>
@@ -15831,7 +15723,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="14.5">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" s="3">
         <v>323</v>
       </c>
@@ -15852,7 +15744,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="14.5">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" s="3">
         <v>327</v>
       </c>
@@ -15873,7 +15765,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="14.5">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" s="3">
         <v>328</v>
       </c>
@@ -15894,7 +15786,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="14.5">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" s="3">
         <v>354</v>
       </c>
@@ -15915,7 +15807,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="14.5">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" s="3">
         <v>358</v>
       </c>
@@ -15936,7 +15828,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="14.5">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" s="3">
         <v>366</v>
       </c>
@@ -15957,7 +15849,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="14.5">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" s="3">
         <v>369</v>
       </c>
@@ -15978,7 +15870,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="14.5">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" s="3">
         <v>372</v>
       </c>
@@ -15999,7 +15891,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="14.5">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" s="3">
         <v>379</v>
       </c>
@@ -16020,7 +15912,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="14.5">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" s="3">
         <v>385</v>
       </c>
@@ -16041,7 +15933,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="14.5">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" s="3">
         <v>397</v>
       </c>
@@ -16062,7 +15954,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="14.5">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" s="3">
         <v>398</v>
       </c>
@@ -16083,7 +15975,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="14.5">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" s="3">
         <v>402</v>
       </c>
@@ -16104,7 +15996,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="14.5">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" s="3">
         <v>404</v>
       </c>
@@ -16125,7 +16017,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="14.5">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" s="3">
         <v>406</v>
       </c>
@@ -16146,7 +16038,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="14.5">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" s="3">
         <v>408</v>
       </c>
@@ -16167,7 +16059,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="14.5">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" s="3">
         <v>409</v>
       </c>
@@ -16188,7 +16080,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="14.5">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" s="3">
         <v>412</v>
       </c>
@@ -16209,7 +16101,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="14.5">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" s="3">
         <v>414</v>
       </c>
@@ -16230,7 +16122,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="14.5">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" s="3">
         <v>416</v>
       </c>
@@ -16251,7 +16143,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="14.5">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" s="3">
         <v>423</v>
       </c>
@@ -16272,7 +16164,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="14.5">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" s="3">
         <v>425</v>
       </c>
@@ -16293,7 +16185,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="14.5">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" s="3">
         <v>429</v>
       </c>
@@ -16314,7 +16206,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="14.5">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" s="3">
         <v>433</v>
       </c>
@@ -16335,7 +16227,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="14.5">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" s="3">
         <v>435</v>
       </c>
@@ -16356,7 +16248,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="14.5">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" s="3">
         <v>437</v>
       </c>
@@ -16377,7 +16269,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="14.5">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" s="3">
         <v>441</v>
       </c>
@@ -16398,7 +16290,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="14.5">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" s="3">
         <v>442</v>
       </c>
@@ -16419,7 +16311,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="14.5">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" s="3">
         <v>443</v>
       </c>
@@ -16436,11 +16328,11 @@
         <v>16</v>
       </c>
       <c r="F578" s="3" t="str">
-        <f t="shared" si="9" ref="F578:F612">CONCATENATE(D578," No - ",E578)</f>
+        <f t="shared" ref="F578:F612" si="9">CONCATENATE(D578," No - ",E578)</f>
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="14.5">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" s="3">
         <v>452</v>
       </c>
@@ -16461,7 +16353,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="14.5">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" s="3">
         <v>458</v>
       </c>
@@ -16482,7 +16374,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="14.5">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" s="3">
         <v>459</v>
       </c>
@@ -16503,7 +16395,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="14.5">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" s="3">
         <v>464</v>
       </c>
@@ -16524,7 +16416,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="14.5">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" s="3">
         <v>468</v>
       </c>
@@ -16545,7 +16437,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="14.5">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" s="3">
         <v>473</v>
       </c>
@@ -16566,7 +16458,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="14.5">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" s="3">
         <v>474</v>
       </c>
@@ -16587,7 +16479,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="14.5">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" s="3">
         <v>477</v>
       </c>
@@ -16608,7 +16500,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="14.5">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" s="3">
         <v>555</v>
       </c>
@@ -16629,7 +16521,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="14.5">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A588" s="3">
         <v>556</v>
       </c>
@@ -16650,7 +16542,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="14.5">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A589" s="3">
         <v>557</v>
       </c>
@@ -16671,7 +16563,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="14.5">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A590" s="3">
         <v>558</v>
       </c>
@@ -16692,7 +16584,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="14.5">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A591" s="3">
         <v>559</v>
       </c>
@@ -16713,7 +16605,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="14.5">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A592" s="3">
         <v>560</v>
       </c>
@@ -16734,7 +16626,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="14.5">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593" s="3">
         <v>561</v>
       </c>
@@ -16755,7 +16647,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="14.5">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" s="3">
         <v>562</v>
       </c>
@@ -16776,11 +16668,11 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="14.5">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595" s="3">
         <v>563</v>
       </c>
-      <c r="B595" s="14" t="s">
+      <c r="B595" s="12" t="s">
         <v>1192</v>
       </c>
       <c r="C595" s="6" t="s">
@@ -16797,11 +16689,11 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="14.5">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596" s="3">
         <v>564</v>
       </c>
-      <c r="B596" s="14" t="s">
+      <c r="B596" s="12" t="s">
         <v>1194</v>
       </c>
       <c r="C596" s="6" t="s">
@@ -16818,7 +16710,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="14.5">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597" s="3">
         <v>565</v>
       </c>
@@ -16839,7 +16731,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="14.5">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598" s="3">
         <v>597</v>
       </c>
@@ -16858,7 +16750,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="14.5">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599" s="3">
         <v>598</v>
       </c>
@@ -16877,7 +16769,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="14.5">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A600" s="3">
         <v>599</v>
       </c>
@@ -16896,7 +16788,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="14.5">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601" s="3">
         <v>600</v>
       </c>
@@ -16915,7 +16807,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="14.5">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602" s="3">
         <v>601</v>
       </c>
@@ -16934,7 +16826,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="14.5">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" s="3">
         <v>602</v>
       </c>
@@ -16953,7 +16845,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="14.5">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604" s="3">
         <v>603</v>
       </c>
@@ -16972,7 +16864,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="14.5">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A605" s="3">
         <v>604</v>
       </c>
@@ -16991,7 +16883,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="14.5">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606" s="3">
         <v>605</v>
       </c>
@@ -17010,7 +16902,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="14.5">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607" s="3">
         <v>606</v>
       </c>
@@ -17029,7 +16921,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="14.5">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608" s="3">
         <v>607</v>
       </c>
@@ -17048,7 +16940,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="14.5">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A609" s="3">
         <v>608</v>
       </c>
@@ -17067,7 +16959,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="14.5">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A610" s="3">
         <v>609</v>
       </c>
@@ -17086,7 +16978,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="14.5">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A611" s="3">
         <v>610</v>
       </c>
@@ -17105,7 +16997,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="14.5">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A612" s="3">
         <v>611</v>
       </c>
@@ -17125,6 +17017,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F612" xr:uid="{6EA5534B-E663-4101-B9CC-D9E29370EFE7}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6893A074-436B-48BC-B343-1ABE0B0C14FD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/seatPage.xlsx
+++ b/seatPage.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627556EB-350D-4A8E-8E0F-079A070A5DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDF5E8EF-9A92-4C06-A8B1-AAE691BEEEC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$612</definedName>
@@ -45,7 +44,7 @@
     <t>Sr. No</t>
   </si>
   <si>
-    <t>EM IP</t>
+    <t>EMIP</t>
   </si>
   <si>
     <t>Emp Name</t>
@@ -3691,7 +3690,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3700,20 +3699,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -3753,7 +3745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.799979984760284"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3780,46 +3772,75 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3827,30 +3848,99 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{37059CE2-E4A0-4829-9D8E-B4CDEA593036}"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Normal 3" xfId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B4468150-A4DE-432C-8825-F1BB1FD601F4}"/>
+    <tableStyle name="Invisible" pivot="0" table="0"/>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4178,24 +4268,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA5534B-E663-4101-B9CC-D9E29370EFE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA5534B-E663-4101-B9CC-D9E29370EFE7}">
   <dimension ref="A1:F612"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.14285714285714" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.14285714285714" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28571428571429" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85714285714286" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.4285714285714" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +4305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4232,11 +4322,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f t="shared" ref="F2:F65" si="0">CONCATENATE(D2," No - ",E2)</f>
+        <f t="shared" si="0" ref="F2:F65">CONCATENATE(D2," No - ",E2)</f>
         <v>Chair No - 1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="14.5">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -4257,7 +4347,7 @@
         <v>Chair No - 2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="14.5">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -4278,7 +4368,7 @@
         <v>Chair No - 3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="14.5">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -4299,7 +4389,7 @@
         <v>Chair No - 4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="14.5">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -4320,7 +4410,7 @@
         <v>Chair No - 5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="14.5">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -4341,7 +4431,7 @@
         <v>Chair No - 6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="14.5">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -4362,7 +4452,7 @@
         <v>Chair No - 7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="14.5">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -4383,7 +4473,7 @@
         <v>Chair No - 8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="14.5">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -4404,7 +4494,7 @@
         <v>Chair No - 9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="14.5">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -4425,7 +4515,7 @@
         <v>Chair No - 10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="14.5">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -4446,7 +4536,7 @@
         <v>Chair No - 11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="14.5">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -4467,7 +4557,7 @@
         <v>Chair No - 12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="14.5">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -4488,7 +4578,7 @@
         <v>Chair No - 13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="14.5">
       <c r="A15" s="3">
         <v>16</v>
       </c>
@@ -4509,7 +4599,7 @@
         <v>Chair No - 14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="14.5">
       <c r="A16" s="3">
         <v>17</v>
       </c>
@@ -4530,7 +4620,7 @@
         <v>Chair No - 15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="14.5">
       <c r="A17" s="3">
         <v>18</v>
       </c>
@@ -4551,7 +4641,7 @@
         <v>Chair No - 16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="14.5">
       <c r="A18" s="3">
         <v>20</v>
       </c>
@@ -4572,7 +4662,7 @@
         <v>Chair No - 17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="14.5">
       <c r="A19" s="3">
         <v>21</v>
       </c>
@@ -4593,7 +4683,7 @@
         <v>Chair No - 18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="14.5">
       <c r="A20" s="3">
         <v>23</v>
       </c>
@@ -4614,7 +4704,7 @@
         <v>Chair No - 19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="14.5">
       <c r="A21" s="3">
         <v>24</v>
       </c>
@@ -4635,7 +4725,7 @@
         <v>Chair No - 20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="14.5">
       <c r="A22" s="3">
         <v>25</v>
       </c>
@@ -4656,7 +4746,7 @@
         <v>Chair No - 21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="14.5">
       <c r="A23" s="3">
         <v>26</v>
       </c>
@@ -4677,7 +4767,7 @@
         <v>Chair No - 22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="14.5">
       <c r="A24" s="3">
         <v>27</v>
       </c>
@@ -4698,7 +4788,7 @@
         <v>Chair No - 23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="14.5">
       <c r="A25" s="3">
         <v>28</v>
       </c>
@@ -4719,7 +4809,7 @@
         <v>Chair No - 24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="14.5">
       <c r="A26" s="3">
         <v>29</v>
       </c>
@@ -4740,7 +4830,7 @@
         <v>Chair No - 25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="14.5">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -4761,7 +4851,7 @@
         <v>Chair No - 26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="14.5">
       <c r="A28" s="3">
         <v>32</v>
       </c>
@@ -4782,7 +4872,7 @@
         <v>Chair No - 27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="14.5">
       <c r="A29" s="3">
         <v>33</v>
       </c>
@@ -4803,7 +4893,7 @@
         <v>Chair No - 28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="14.5">
       <c r="A30" s="3">
         <v>34</v>
       </c>
@@ -4824,7 +4914,7 @@
         <v>Chair No - 29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="14.5">
       <c r="A31" s="3">
         <v>35</v>
       </c>
@@ -4845,7 +4935,7 @@
         <v>Chair No - 30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="14.5">
       <c r="A32" s="3">
         <v>36</v>
       </c>
@@ -4866,7 +4956,7 @@
         <v>Chair No - 31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="14.5">
       <c r="A33" s="3">
         <v>37</v>
       </c>
@@ -4887,7 +4977,7 @@
         <v>Chair No - 32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="14.5">
       <c r="A34" s="3">
         <v>38</v>
       </c>
@@ -4908,7 +4998,7 @@
         <v>Chair No - 33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="14.5">
       <c r="A35" s="3">
         <v>39</v>
       </c>
@@ -4929,7 +5019,7 @@
         <v>Chair No - 34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="14.5">
       <c r="A36" s="3">
         <v>40</v>
       </c>
@@ -4950,7 +5040,7 @@
         <v>Chair No - 35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="14.5">
       <c r="A37" s="3">
         <v>41</v>
       </c>
@@ -4971,7 +5061,7 @@
         <v>Chair No - 36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="14.5">
       <c r="A38" s="3">
         <v>42</v>
       </c>
@@ -4992,7 +5082,7 @@
         <v>Chair No - 37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="14.5">
       <c r="A39" s="3">
         <v>44</v>
       </c>
@@ -5013,7 +5103,7 @@
         <v>Chair No - 38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="14.5">
       <c r="A40" s="3">
         <v>45</v>
       </c>
@@ -5034,7 +5124,7 @@
         <v>Chair No - 39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="14.5">
       <c r="A41" s="3">
         <v>46</v>
       </c>
@@ -5055,7 +5145,7 @@
         <v>Chair No - 40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="14.5">
       <c r="A42" s="3">
         <v>49</v>
       </c>
@@ -5076,7 +5166,7 @@
         <v>Chair No - 41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="14.5">
       <c r="A43" s="3">
         <v>50</v>
       </c>
@@ -5097,7 +5187,7 @@
         <v>Chair No - 42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="14.5">
       <c r="A44" s="3">
         <v>51</v>
       </c>
@@ -5118,7 +5208,7 @@
         <v>Chair No - 43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="14.5">
       <c r="A45" s="3">
         <v>55</v>
       </c>
@@ -5139,7 +5229,7 @@
         <v>Chair No - 44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="14.5">
       <c r="A46" s="3">
         <v>56</v>
       </c>
@@ -5160,7 +5250,7 @@
         <v>Chair No - 45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="14.5">
       <c r="A47" s="3">
         <v>59</v>
       </c>
@@ -5181,7 +5271,7 @@
         <v>Chair No - 46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="14.5">
       <c r="A48" s="3">
         <v>60</v>
       </c>
@@ -5202,7 +5292,7 @@
         <v>Chair No - 47</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="14.5">
       <c r="A49" s="3">
         <v>62</v>
       </c>
@@ -5223,7 +5313,7 @@
         <v>Chair No - 48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="14.5">
       <c r="A50" s="3">
         <v>63</v>
       </c>
@@ -5244,7 +5334,7 @@
         <v>Chair No - 49</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="14.5">
       <c r="A51" s="3">
         <v>64</v>
       </c>
@@ -5265,7 +5355,7 @@
         <v>Chair No - 50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="14.5">
       <c r="A52" s="3">
         <v>65</v>
       </c>
@@ -5286,7 +5376,7 @@
         <v>Chair No - 51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="14.5">
       <c r="A53" s="3">
         <v>66</v>
       </c>
@@ -5307,7 +5397,7 @@
         <v>Chair No - 52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="14.5">
       <c r="A54" s="3">
         <v>70</v>
       </c>
@@ -5328,7 +5418,7 @@
         <v>Chair No - 53</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="14.5">
       <c r="A55" s="3">
         <v>71</v>
       </c>
@@ -5349,7 +5439,7 @@
         <v>Chair No - 54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="14.5">
       <c r="A56" s="3">
         <v>73</v>
       </c>
@@ -5370,7 +5460,7 @@
         <v>Chair No - 55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="14.5">
       <c r="A57" s="3">
         <v>74</v>
       </c>
@@ -5391,7 +5481,7 @@
         <v>Chair No - 56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="14.5">
       <c r="A58" s="3">
         <v>75</v>
       </c>
@@ -5412,7 +5502,7 @@
         <v>Chair No - 57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="14.5">
       <c r="A59" s="3">
         <v>76</v>
       </c>
@@ -5433,7 +5523,7 @@
         <v>Chair No - 58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="14.5">
       <c r="A60" s="3">
         <v>77</v>
       </c>
@@ -5454,7 +5544,7 @@
         <v>Chair No - 59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="14.5">
       <c r="A61" s="3">
         <v>78</v>
       </c>
@@ -5475,7 +5565,7 @@
         <v>Chair No - 60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="14.5">
       <c r="A62" s="3">
         <v>79</v>
       </c>
@@ -5496,7 +5586,7 @@
         <v>Chair No - 61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="14.5">
       <c r="A63" s="3">
         <v>80</v>
       </c>
@@ -5517,7 +5607,7 @@
         <v>Chair No - 62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="14.5">
       <c r="A64" s="3">
         <v>81</v>
       </c>
@@ -5538,7 +5628,7 @@
         <v>Chair No - 63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="14.5">
       <c r="A65" s="3">
         <v>82</v>
       </c>
@@ -5559,7 +5649,7 @@
         <v>Chair No - 64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="14.5">
       <c r="A66" s="3">
         <v>85</v>
       </c>
@@ -5576,11 +5666,11 @@
         <v>65</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f t="shared" ref="F66:F129" si="1">CONCATENATE(D66," No - ",E66)</f>
+        <f t="shared" si="1" ref="F66:F129">CONCATENATE(D66," No - ",E66)</f>
         <v>Chair No - 65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="14.5">
       <c r="A67" s="3">
         <v>86</v>
       </c>
@@ -5601,7 +5691,7 @@
         <v>Chair No - 66</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="14.5">
       <c r="A68" s="3">
         <v>87</v>
       </c>
@@ -5622,7 +5712,7 @@
         <v>Chair No - 67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="14.5">
       <c r="A69" s="3">
         <v>88</v>
       </c>
@@ -5643,7 +5733,7 @@
         <v>Chair No - 68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="14.5">
       <c r="A70" s="3">
         <v>89</v>
       </c>
@@ -5664,7 +5754,7 @@
         <v>Chair No - 69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="14.5">
       <c r="A71" s="3">
         <v>91</v>
       </c>
@@ -5685,7 +5775,7 @@
         <v>Chair No - 70</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="14.5">
       <c r="A72" s="3">
         <v>93</v>
       </c>
@@ -5706,7 +5796,7 @@
         <v>Chair No - 71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="14.5">
       <c r="A73" s="3">
         <v>94</v>
       </c>
@@ -5727,7 +5817,7 @@
         <v>Chair No - 72</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="14.5">
       <c r="A74" s="3">
         <v>95</v>
       </c>
@@ -5748,7 +5838,7 @@
         <v>Chair No - 73</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="14.5">
       <c r="A75" s="3">
         <v>96</v>
       </c>
@@ -5769,7 +5859,7 @@
         <v>Chair No - 74</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="14.5">
       <c r="A76" s="3">
         <v>97</v>
       </c>
@@ -5790,7 +5880,7 @@
         <v>Chair No - 75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="14.5">
       <c r="A77" s="3">
         <v>98</v>
       </c>
@@ -5811,7 +5901,7 @@
         <v>Chair No - 76</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="14.5">
       <c r="A78" s="3">
         <v>100</v>
       </c>
@@ -5832,7 +5922,7 @@
         <v>Chair No - 77</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="14.5">
       <c r="A79" s="3">
         <v>101</v>
       </c>
@@ -5853,7 +5943,7 @@
         <v>Chair No - 78</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="14.5">
       <c r="A80" s="3">
         <v>103</v>
       </c>
@@ -5874,7 +5964,7 @@
         <v>Chair No - 79</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="14.5">
       <c r="A81" s="3">
         <v>104</v>
       </c>
@@ -5895,7 +5985,7 @@
         <v>Chair No - 80</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="14.5">
       <c r="A82" s="3">
         <v>105</v>
       </c>
@@ -5916,7 +6006,7 @@
         <v>Chair No - 81</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="14.5">
       <c r="A83" s="3">
         <v>107</v>
       </c>
@@ -5937,7 +6027,7 @@
         <v>Chair No - 82</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="14.5">
       <c r="A84" s="3">
         <v>108</v>
       </c>
@@ -5958,7 +6048,7 @@
         <v>Chair No - 83</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="14.5">
       <c r="A85" s="3">
         <v>109</v>
       </c>
@@ -5979,7 +6069,7 @@
         <v>Chair No - 84</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="14.5">
       <c r="A86" s="3">
         <v>110</v>
       </c>
@@ -6000,7 +6090,7 @@
         <v>Chair No - 85</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="14.5">
       <c r="A87" s="3">
         <v>115</v>
       </c>
@@ -6021,7 +6111,7 @@
         <v>Chair No - 86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="14.5">
       <c r="A88" s="3">
         <v>118</v>
       </c>
@@ -6042,7 +6132,7 @@
         <v>Chair No - 87</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="14.5">
       <c r="A89" s="3">
         <v>119</v>
       </c>
@@ -6063,7 +6153,7 @@
         <v>Chair No - 88</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="14.5">
       <c r="A90" s="3">
         <v>120</v>
       </c>
@@ -6084,7 +6174,7 @@
         <v>Chair No - 89</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="14.5">
       <c r="A91" s="3">
         <v>121</v>
       </c>
@@ -6105,7 +6195,7 @@
         <v>Chair No - 90</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="14.5">
       <c r="A92" s="3">
         <v>122</v>
       </c>
@@ -6126,7 +6216,7 @@
         <v>Chair No - 91</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="14.5">
       <c r="A93" s="3">
         <v>124</v>
       </c>
@@ -6147,7 +6237,7 @@
         <v>Chair No - 92</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="14.5">
       <c r="A94" s="3">
         <v>126</v>
       </c>
@@ -6168,7 +6258,7 @@
         <v>Chair No - 93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="14.5">
       <c r="A95" s="3">
         <v>127</v>
       </c>
@@ -6189,7 +6279,7 @@
         <v>Chair No - 94</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="14.5">
       <c r="A96" s="3">
         <v>128</v>
       </c>
@@ -6210,7 +6300,7 @@
         <v>Chair No - 95</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="14.5">
       <c r="A97" s="3">
         <v>129</v>
       </c>
@@ -6231,7 +6321,7 @@
         <v>Chair No - 96</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="14.5">
       <c r="A98" s="3">
         <v>130</v>
       </c>
@@ -6252,7 +6342,7 @@
         <v>Chair No - 97</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="14.5">
       <c r="A99" s="3">
         <v>131</v>
       </c>
@@ -6273,7 +6363,7 @@
         <v>Chair No - 98</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="14.5">
       <c r="A100" s="3">
         <v>132</v>
       </c>
@@ -6294,7 +6384,7 @@
         <v>Chair No - 99</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="14.5">
       <c r="A101" s="3">
         <v>135</v>
       </c>
@@ -6315,7 +6405,7 @@
         <v>Chair No - 100</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="14.5">
       <c r="A102" s="3">
         <v>136</v>
       </c>
@@ -6336,7 +6426,7 @@
         <v>Chair No - 101</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="14.5">
       <c r="A103" s="3">
         <v>137</v>
       </c>
@@ -6357,7 +6447,7 @@
         <v>Chair No - 102</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="14.5">
       <c r="A104" s="3">
         <v>138</v>
       </c>
@@ -6378,7 +6468,7 @@
         <v>Chair No - 103</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="14.5">
       <c r="A105" s="3">
         <v>139</v>
       </c>
@@ -6399,7 +6489,7 @@
         <v>Chair No - 104</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="14.5">
       <c r="A106" s="3">
         <v>141</v>
       </c>
@@ -6420,7 +6510,7 @@
         <v>Chair No - 105</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="14.5">
       <c r="A107" s="3">
         <v>142</v>
       </c>
@@ -6441,7 +6531,7 @@
         <v>Chair No - 106</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="14.5">
       <c r="A108" s="3">
         <v>143</v>
       </c>
@@ -6462,7 +6552,7 @@
         <v>Chair No - 107</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="14.5">
       <c r="A109" s="3">
         <v>144</v>
       </c>
@@ -6483,7 +6573,7 @@
         <v>Chair No - 108</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="14.5">
       <c r="A110" s="3">
         <v>147</v>
       </c>
@@ -6504,7 +6594,7 @@
         <v>Chair No - 109</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" ht="16">
       <c r="A111" s="3">
         <v>148</v>
       </c>
@@ -6525,7 +6615,7 @@
         <v>Chair No - 110</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="14.5">
       <c r="A112" s="3">
         <v>149</v>
       </c>
@@ -6546,7 +6636,7 @@
         <v>Chair No - 111</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="14.5">
       <c r="A113" s="3">
         <v>152</v>
       </c>
@@ -6567,7 +6657,7 @@
         <v>Chair No - 112</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="14.5">
       <c r="A114" s="3">
         <v>153</v>
       </c>
@@ -6588,7 +6678,7 @@
         <v>Chair No - 113</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="14.5">
       <c r="A115" s="3">
         <v>155</v>
       </c>
@@ -6609,7 +6699,7 @@
         <v>Chair No - 114</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="14.5">
       <c r="A116" s="3">
         <v>158</v>
       </c>
@@ -6630,7 +6720,7 @@
         <v>Chair No - 115</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="14.5">
       <c r="A117" s="3">
         <v>159</v>
       </c>
@@ -6651,7 +6741,7 @@
         <v>Chair No - 116</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" ht="14.5">
       <c r="A118" s="3">
         <v>160</v>
       </c>
@@ -6672,7 +6762,7 @@
         <v>Chair No - 117</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="14.5">
       <c r="A119" s="3">
         <v>161</v>
       </c>
@@ -6693,7 +6783,7 @@
         <v>Chair No - 118</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" ht="14.5">
       <c r="A120" s="3">
         <v>162</v>
       </c>
@@ -6714,7 +6804,7 @@
         <v>Chair No - 119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="14.5">
       <c r="A121" s="3">
         <v>163</v>
       </c>
@@ -6735,7 +6825,7 @@
         <v>Chair No - 120</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="14.5">
       <c r="A122" s="3">
         <v>166</v>
       </c>
@@ -6756,7 +6846,7 @@
         <v>Chair No - 121</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="14.5">
       <c r="A123" s="3">
         <v>167</v>
       </c>
@@ -6777,7 +6867,7 @@
         <v>Chair No - 122</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="14.5">
       <c r="A124" s="3">
         <v>168</v>
       </c>
@@ -6798,7 +6888,7 @@
         <v>Chair No - 123</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="14.5">
       <c r="A125" s="3">
         <v>170</v>
       </c>
@@ -6819,7 +6909,7 @@
         <v>Chair No - 124</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="14.5">
       <c r="A126" s="3">
         <v>172</v>
       </c>
@@ -6840,7 +6930,7 @@
         <v>Chair No - 125</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="14.5">
       <c r="A127" s="3">
         <v>174</v>
       </c>
@@ -6861,7 +6951,7 @@
         <v>Chair No - 126</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" ht="14.5">
       <c r="A128" s="3">
         <v>176</v>
       </c>
@@ -6882,7 +6972,7 @@
         <v>Chair No - 127</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" ht="14.5">
       <c r="A129" s="3">
         <v>177</v>
       </c>
@@ -6903,7 +6993,7 @@
         <v>Chair No - 128</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" ht="14.5">
       <c r="A130" s="3">
         <v>178</v>
       </c>
@@ -6920,11 +7010,11 @@
         <v>129</v>
       </c>
       <c r="F130" s="3" t="str">
-        <f t="shared" ref="F130:F193" si="2">CONCATENATE(D130," No - ",E130)</f>
+        <f t="shared" si="2" ref="F130:F193">CONCATENATE(D130," No - ",E130)</f>
         <v>Chair No - 129</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" ht="14.5">
       <c r="A131" s="3">
         <v>179</v>
       </c>
@@ -6945,7 +7035,7 @@
         <v>Chair No - 130</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" ht="14.5">
       <c r="A132" s="3">
         <v>181</v>
       </c>
@@ -6966,7 +7056,7 @@
         <v>Chair No - 131</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="14.5">
       <c r="A133" s="3">
         <v>182</v>
       </c>
@@ -6987,7 +7077,7 @@
         <v>Chair No - 132</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" ht="14.5">
       <c r="A134" s="3">
         <v>184</v>
       </c>
@@ -7008,7 +7098,7 @@
         <v>Chair No - 133</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" ht="14.5">
       <c r="A135" s="3">
         <v>185</v>
       </c>
@@ -7029,7 +7119,7 @@
         <v>Chair No - 134</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" ht="14.5">
       <c r="A136" s="3">
         <v>186</v>
       </c>
@@ -7050,7 +7140,7 @@
         <v>Chair No - 135</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" ht="14.5">
       <c r="A137" s="3">
         <v>187</v>
       </c>
@@ -7071,7 +7161,7 @@
         <v>Chair No - 136</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" ht="14.5">
       <c r="A138" s="3">
         <v>188</v>
       </c>
@@ -7092,7 +7182,7 @@
         <v>Chair No - 137</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" ht="14.5">
       <c r="A139" s="3">
         <v>190</v>
       </c>
@@ -7113,7 +7203,7 @@
         <v>Chair No - 138</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" ht="14.5">
       <c r="A140" s="3">
         <v>192</v>
       </c>
@@ -7134,7 +7224,7 @@
         <v>Chair No - 139</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" ht="14.5">
       <c r="A141" s="3">
         <v>193</v>
       </c>
@@ -7155,7 +7245,7 @@
         <v>Chair No - 140</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" ht="14.5">
       <c r="A142" s="3">
         <v>194</v>
       </c>
@@ -7176,7 +7266,7 @@
         <v>Chair No - 141</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" ht="14.5">
       <c r="A143" s="3">
         <v>195</v>
       </c>
@@ -7197,7 +7287,7 @@
         <v>Chair No - 142</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" ht="14.5">
       <c r="A144" s="3">
         <v>196</v>
       </c>
@@ -7218,7 +7308,7 @@
         <v>Chair No - 143</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="14.5">
       <c r="A145" s="3">
         <v>197</v>
       </c>
@@ -7239,7 +7329,7 @@
         <v>Chair No - 144</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="14.5">
       <c r="A146" s="3">
         <v>198</v>
       </c>
@@ -7260,7 +7350,7 @@
         <v>Chair No - 145</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" ht="14.5">
       <c r="A147" s="3">
         <v>199</v>
       </c>
@@ -7281,7 +7371,7 @@
         <v>Chair No - 146</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" ht="14.5">
       <c r="A148" s="3">
         <v>201</v>
       </c>
@@ -7302,7 +7392,7 @@
         <v>Chair No - 147</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" ht="14.5">
       <c r="A149" s="3">
         <v>202</v>
       </c>
@@ -7323,7 +7413,7 @@
         <v>Chair No - 148</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="14.5">
       <c r="A150" s="3">
         <v>203</v>
       </c>
@@ -7344,7 +7434,7 @@
         <v>Chair No - 149</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" ht="14.5">
       <c r="A151" s="3">
         <v>204</v>
       </c>
@@ -7365,7 +7455,7 @@
         <v>Chair No - 150</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" ht="14.5">
       <c r="A152" s="3">
         <v>205</v>
       </c>
@@ -7386,7 +7476,7 @@
         <v>Chair No - 151</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="14.5">
       <c r="A153" s="3">
         <v>206</v>
       </c>
@@ -7407,7 +7497,7 @@
         <v>Chair No - 152</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" ht="14.5">
       <c r="A154" s="3">
         <v>207</v>
       </c>
@@ -7428,7 +7518,7 @@
         <v>Chair No - 153</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="14.5">
       <c r="A155" s="3">
         <v>208</v>
       </c>
@@ -7449,7 +7539,7 @@
         <v>Chair No - 154</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" ht="14.5">
       <c r="A156" s="3">
         <v>209</v>
       </c>
@@ -7470,7 +7560,7 @@
         <v>Chair No - 155</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="14.5">
       <c r="A157" s="3">
         <v>210</v>
       </c>
@@ -7491,7 +7581,7 @@
         <v>Chair No - 156</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="14.5">
       <c r="A158" s="3">
         <v>211</v>
       </c>
@@ -7512,7 +7602,7 @@
         <v>Chair No - 157</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" ht="14.5">
       <c r="A159" s="3">
         <v>212</v>
       </c>
@@ -7533,7 +7623,7 @@
         <v>Chair No - 158</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="14.5">
       <c r="A160" s="3">
         <v>213</v>
       </c>
@@ -7554,7 +7644,7 @@
         <v>Chair No - 159</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" ht="14.5">
       <c r="A161" s="3">
         <v>214</v>
       </c>
@@ -7575,7 +7665,7 @@
         <v>Chair No - 160</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" ht="14.5">
       <c r="A162" s="3">
         <v>216</v>
       </c>
@@ -7596,7 +7686,7 @@
         <v>Chair No - 161</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" ht="14.5">
       <c r="A163" s="3">
         <v>218</v>
       </c>
@@ -7617,7 +7707,7 @@
         <v>Chair No - 162</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="14.5">
       <c r="A164" s="3">
         <v>219</v>
       </c>
@@ -7638,7 +7728,7 @@
         <v>Chair No - 163</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" ht="14.5">
       <c r="A165" s="3">
         <v>220</v>
       </c>
@@ -7659,7 +7749,7 @@
         <v>Chair No - 164</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="14.5">
       <c r="A166" s="3">
         <v>221</v>
       </c>
@@ -7680,7 +7770,7 @@
         <v>Chair No - 165</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="14.5">
       <c r="A167" s="3">
         <v>222</v>
       </c>
@@ -7701,7 +7791,7 @@
         <v>Chair No - 166</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="14.5">
       <c r="A168" s="3">
         <v>223</v>
       </c>
@@ -7722,7 +7812,7 @@
         <v>Chair No - 167</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" ht="14.5">
       <c r="A169" s="3">
         <v>224</v>
       </c>
@@ -7743,7 +7833,7 @@
         <v>Chair No - 168</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" ht="14.5">
       <c r="A170" s="3">
         <v>225</v>
       </c>
@@ -7764,7 +7854,7 @@
         <v>Chair No - 169</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="14.5">
       <c r="A171" s="3">
         <v>226</v>
       </c>
@@ -7785,7 +7875,7 @@
         <v>Chair No - 170</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" ht="14.5">
       <c r="A172" s="3">
         <v>227</v>
       </c>
@@ -7806,7 +7896,7 @@
         <v>Chair No - 171</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" ht="14.5">
       <c r="A173" s="3">
         <v>228</v>
       </c>
@@ -7827,7 +7917,7 @@
         <v>Chair No - 172</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="14.5">
       <c r="A174" s="3">
         <v>229</v>
       </c>
@@ -7848,7 +7938,7 @@
         <v>Chair No - 173</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="14.5">
       <c r="A175" s="3">
         <v>230</v>
       </c>
@@ -7869,7 +7959,7 @@
         <v>Chair No - 174</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="14.5">
       <c r="A176" s="3">
         <v>231</v>
       </c>
@@ -7890,7 +7980,7 @@
         <v>Chair No - 175</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" ht="14.5">
       <c r="A177" s="3">
         <v>232</v>
       </c>
@@ -7911,7 +8001,7 @@
         <v>Chair No - 176</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" ht="14.5">
       <c r="A178" s="3">
         <v>233</v>
       </c>
@@ -7932,7 +8022,7 @@
         <v>Chair No - 177</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" ht="14.5">
       <c r="A179" s="3">
         <v>234</v>
       </c>
@@ -7953,7 +8043,7 @@
         <v>Chair No - 178</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" ht="14.5">
       <c r="A180" s="3">
         <v>236</v>
       </c>
@@ -7974,7 +8064,7 @@
         <v>Chair No - 179</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" ht="14.5">
       <c r="A181" s="3">
         <v>238</v>
       </c>
@@ -7995,7 +8085,7 @@
         <v>Chair No - 180</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" ht="14.5">
       <c r="A182" s="3">
         <v>240</v>
       </c>
@@ -8016,7 +8106,7 @@
         <v>Chair No - 181</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="14.5">
       <c r="A183" s="3">
         <v>241</v>
       </c>
@@ -8037,7 +8127,7 @@
         <v>Chair No - 182</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" ht="14.5">
       <c r="A184" s="3">
         <v>242</v>
       </c>
@@ -8058,7 +8148,7 @@
         <v>Chair No - 183</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="14.5">
       <c r="A185" s="3">
         <v>243</v>
       </c>
@@ -8079,7 +8169,7 @@
         <v>Chair No - 184</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="14.5">
       <c r="A186" s="3">
         <v>244</v>
       </c>
@@ -8100,7 +8190,7 @@
         <v>Chair No - 185</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="14.5">
       <c r="A187" s="3">
         <v>245</v>
       </c>
@@ -8121,7 +8211,7 @@
         <v>Chair No - 186</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="14.5">
       <c r="A188" s="3">
         <v>246</v>
       </c>
@@ -8142,7 +8232,7 @@
         <v>Chair No - 187</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" ht="14.5">
       <c r="A189" s="3">
         <v>247</v>
       </c>
@@ -8163,7 +8253,7 @@
         <v>Chair No - 188</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="14.5">
       <c r="A190" s="3">
         <v>248</v>
       </c>
@@ -8184,7 +8274,7 @@
         <v>Chair No - 189</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" ht="14.5">
       <c r="A191" s="3">
         <v>249</v>
       </c>
@@ -8205,7 +8295,7 @@
         <v>Chair No - 190</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" ht="14.5">
       <c r="A192" s="3">
         <v>250</v>
       </c>
@@ -8226,7 +8316,7 @@
         <v>Chair No - 191</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" ht="14.5">
       <c r="A193" s="3">
         <v>253</v>
       </c>
@@ -8247,7 +8337,7 @@
         <v>Chair No - 192</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" ht="14.5">
       <c r="A194" s="3">
         <v>254</v>
       </c>
@@ -8264,11 +8354,11 @@
         <v>193</v>
       </c>
       <c r="F194" s="3" t="str">
-        <f t="shared" ref="F194:F257" si="3">CONCATENATE(D194," No - ",E194)</f>
+        <f t="shared" si="3" ref="F194:F257">CONCATENATE(D194," No - ",E194)</f>
         <v>Chair No - 193</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" ht="14.5">
       <c r="A195" s="3">
         <v>255</v>
       </c>
@@ -8289,7 +8379,7 @@
         <v>Chair No - 194</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" ht="14.5">
       <c r="A196" s="3">
         <v>256</v>
       </c>
@@ -8310,7 +8400,7 @@
         <v>Chair No - 195</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" ht="14.5">
       <c r="A197" s="3">
         <v>257</v>
       </c>
@@ -8331,7 +8421,7 @@
         <v>Chair No - 196</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" ht="14.5">
       <c r="A198" s="3">
         <v>258</v>
       </c>
@@ -8352,7 +8442,7 @@
         <v>Chair No - 197</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" ht="14.5">
       <c r="A199" s="3">
         <v>259</v>
       </c>
@@ -8373,7 +8463,7 @@
         <v>Chair No - 198</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" ht="14.5">
       <c r="A200" s="3">
         <v>260</v>
       </c>
@@ -8394,7 +8484,7 @@
         <v>Chair No - 199</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" ht="14.5">
       <c r="A201" s="3">
         <v>261</v>
       </c>
@@ -8415,7 +8505,7 @@
         <v>Chair No - 200</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" ht="14.5">
       <c r="A202" s="3">
         <v>262</v>
       </c>
@@ -8436,7 +8526,7 @@
         <v>Chair No - 201</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" ht="14.5">
       <c r="A203" s="3">
         <v>263</v>
       </c>
@@ -8457,7 +8547,7 @@
         <v>Chair No - 202</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" ht="14.5">
       <c r="A204" s="3">
         <v>264</v>
       </c>
@@ -8478,7 +8568,7 @@
         <v>Chair No - 203</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" ht="14.5">
       <c r="A205" s="3">
         <v>265</v>
       </c>
@@ -8499,7 +8589,7 @@
         <v>Chair No - 204</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="14.5">
       <c r="A206" s="3">
         <v>266</v>
       </c>
@@ -8520,7 +8610,7 @@
         <v>Chair No - 205</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" ht="14.5">
       <c r="A207" s="3">
         <v>267</v>
       </c>
@@ -8541,7 +8631,7 @@
         <v>Chair No - 206</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" ht="14.5">
       <c r="A208" s="3">
         <v>268</v>
       </c>
@@ -8562,7 +8652,7 @@
         <v>Chair No - 207</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" ht="14.5">
       <c r="A209" s="3">
         <v>269</v>
       </c>
@@ -8583,7 +8673,7 @@
         <v>Chair No - 208</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" ht="14.5">
       <c r="A210" s="3">
         <v>270</v>
       </c>
@@ -8604,7 +8694,7 @@
         <v>Chair No - 209</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" ht="14.5">
       <c r="A211" s="3">
         <v>271</v>
       </c>
@@ -8625,7 +8715,7 @@
         <v>Chair No - 210</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" ht="14.5">
       <c r="A212" s="3">
         <v>272</v>
       </c>
@@ -8646,7 +8736,7 @@
         <v>Chair No - 211</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" ht="14.5">
       <c r="A213" s="3">
         <v>273</v>
       </c>
@@ -8667,7 +8757,7 @@
         <v>Chair No - 212</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" ht="14.5">
       <c r="A214" s="3">
         <v>274</v>
       </c>
@@ -8688,7 +8778,7 @@
         <v>Chair No - 213</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="14.5">
       <c r="A215" s="3">
         <v>275</v>
       </c>
@@ -8709,7 +8799,7 @@
         <v>Chair No - 214</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="14.5">
       <c r="A216" s="3">
         <v>276</v>
       </c>
@@ -8730,7 +8820,7 @@
         <v>Chair No - 215</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" ht="14.5">
       <c r="A217" s="3">
         <v>278</v>
       </c>
@@ -8751,7 +8841,7 @@
         <v>Chair No - 216</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" ht="14.5">
       <c r="A218" s="3">
         <v>279</v>
       </c>
@@ -8772,7 +8862,7 @@
         <v>Chair No - 217</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" ht="14.5">
       <c r="A219" s="3">
         <v>280</v>
       </c>
@@ -8793,7 +8883,7 @@
         <v>Chair No - 218</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" ht="14.5">
       <c r="A220" s="3">
         <v>281</v>
       </c>
@@ -8814,7 +8904,7 @@
         <v>Chair No - 219</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" ht="14.5">
       <c r="A221" s="3">
         <v>282</v>
       </c>
@@ -8835,7 +8925,7 @@
         <v>Chair No - 220</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" ht="14.5">
       <c r="A222" s="3">
         <v>283</v>
       </c>
@@ -8856,7 +8946,7 @@
         <v>Chair No - 221</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" ht="14.5">
       <c r="A223" s="3">
         <v>284</v>
       </c>
@@ -8877,7 +8967,7 @@
         <v>Chair No - 222</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" ht="14.5">
       <c r="A224" s="3">
         <v>285</v>
       </c>
@@ -8898,7 +8988,7 @@
         <v>Chair No - 223</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" ht="14.5">
       <c r="A225" s="3">
         <v>286</v>
       </c>
@@ -8919,7 +9009,7 @@
         <v>Chair No - 224</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" ht="14.5">
       <c r="A226" s="3">
         <v>287</v>
       </c>
@@ -8940,7 +9030,7 @@
         <v>Chair No - 225</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" ht="14.5">
       <c r="A227" s="3">
         <v>288</v>
       </c>
@@ -8961,7 +9051,7 @@
         <v>Chair No - 226</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" ht="14.5">
       <c r="A228" s="3">
         <v>289</v>
       </c>
@@ -8982,7 +9072,7 @@
         <v>Chair No - 227</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" ht="14.5">
       <c r="A229" s="3">
         <v>290</v>
       </c>
@@ -9003,7 +9093,7 @@
         <v>Chair No - 228</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" ht="14.5">
       <c r="A230" s="3">
         <v>291</v>
       </c>
@@ -9024,7 +9114,7 @@
         <v>Chair No - 229</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" ht="14.5">
       <c r="A231" s="3">
         <v>294</v>
       </c>
@@ -9045,7 +9135,7 @@
         <v>Chair No - 230</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" ht="14.5">
       <c r="A232" s="3">
         <v>295</v>
       </c>
@@ -9066,7 +9156,7 @@
         <v>Chair No - 231</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" ht="14.5">
       <c r="A233" s="3">
         <v>296</v>
       </c>
@@ -9087,7 +9177,7 @@
         <v>Chair No - 232</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" ht="14.5">
       <c r="A234" s="3">
         <v>297</v>
       </c>
@@ -9108,7 +9198,7 @@
         <v>Chair No - 233</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" ht="14.5">
       <c r="A235" s="3">
         <v>298</v>
       </c>
@@ -9129,7 +9219,7 @@
         <v>Chair No - 234</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" ht="14.5">
       <c r="A236" s="3">
         <v>299</v>
       </c>
@@ -9150,7 +9240,7 @@
         <v>Chair No - 235</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" ht="14.5">
       <c r="A237" s="3">
         <v>300</v>
       </c>
@@ -9171,7 +9261,7 @@
         <v>Chair No - 236</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" ht="14.5">
       <c r="A238" s="3">
         <v>301</v>
       </c>
@@ -9192,7 +9282,7 @@
         <v>Chair No - 237</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" ht="14.5">
       <c r="A239" s="3">
         <v>302</v>
       </c>
@@ -9213,7 +9303,7 @@
         <v>Chair No - 238</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" ht="14.5">
       <c r="A240" s="3">
         <v>303</v>
       </c>
@@ -9234,7 +9324,7 @@
         <v>Chair No - 239</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" ht="14.5">
       <c r="A241" s="3">
         <v>304</v>
       </c>
@@ -9255,7 +9345,7 @@
         <v>Chair No - 240</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" ht="14.5">
       <c r="A242" s="3">
         <v>307</v>
       </c>
@@ -9276,7 +9366,7 @@
         <v>Chair No - 241</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" ht="14.5">
       <c r="A243" s="3">
         <v>310</v>
       </c>
@@ -9297,7 +9387,7 @@
         <v>Chair No - 242</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" ht="14.5">
       <c r="A244" s="3">
         <v>311</v>
       </c>
@@ -9318,7 +9408,7 @@
         <v>Chair No - 243</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" ht="14.5">
       <c r="A245" s="3">
         <v>312</v>
       </c>
@@ -9339,7 +9429,7 @@
         <v>Chair No - 244</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" ht="14.5">
       <c r="A246" s="3">
         <v>313</v>
       </c>
@@ -9360,7 +9450,7 @@
         <v>Chair No - 245</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" ht="14.5">
       <c r="A247" s="3">
         <v>314</v>
       </c>
@@ -9381,7 +9471,7 @@
         <v>Chair No - 246</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" ht="14.5">
       <c r="A248" s="3">
         <v>315</v>
       </c>
@@ -9402,7 +9492,7 @@
         <v>Chair No - 247</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" ht="14.5">
       <c r="A249" s="3">
         <v>316</v>
       </c>
@@ -9423,7 +9513,7 @@
         <v>Chair No - 248</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" ht="14.5">
       <c r="A250" s="3">
         <v>317</v>
       </c>
@@ -9444,7 +9534,7 @@
         <v>Chair No - 249</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" ht="14.5">
       <c r="A251" s="3">
         <v>318</v>
       </c>
@@ -9465,7 +9555,7 @@
         <v>Chair No - 250</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" ht="14.5">
       <c r="A252" s="3">
         <v>319</v>
       </c>
@@ -9486,7 +9576,7 @@
         <v>Chair No - 251</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" ht="14.5">
       <c r="A253" s="3">
         <v>320</v>
       </c>
@@ -9507,7 +9597,7 @@
         <v>Chair No - 252</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" ht="14.5">
       <c r="A254" s="3">
         <v>321</v>
       </c>
@@ -9528,7 +9618,7 @@
         <v>Chair No - 253</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" ht="14.5">
       <c r="A255" s="3">
         <v>322</v>
       </c>
@@ -9549,7 +9639,7 @@
         <v>Chair No - 254</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" ht="14.5">
       <c r="A256" s="3">
         <v>324</v>
       </c>
@@ -9570,7 +9660,7 @@
         <v>Chair No - 255</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" ht="14.5">
       <c r="A257" s="3">
         <v>325</v>
       </c>
@@ -9591,7 +9681,7 @@
         <v>Chair No - 256</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" ht="14.5">
       <c r="A258" s="3">
         <v>326</v>
       </c>
@@ -9608,11 +9698,11 @@
         <v>257</v>
       </c>
       <c r="F258" s="3" t="str">
-        <f t="shared" ref="F258:F321" si="4">CONCATENATE(D258," No - ",E258)</f>
+        <f t="shared" si="4" ref="F258:F321">CONCATENATE(D258," No - ",E258)</f>
         <v>Chair No - 257</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" ht="14.5">
       <c r="A259" s="3">
         <v>329</v>
       </c>
@@ -9633,7 +9723,7 @@
         <v>Chair No - 258</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" ht="14.5">
       <c r="A260" s="3">
         <v>330</v>
       </c>
@@ -9654,7 +9744,7 @@
         <v>Chair No - 259</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" ht="14.5">
       <c r="A261" s="3">
         <v>331</v>
       </c>
@@ -9675,7 +9765,7 @@
         <v>Chair No - 260</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" ht="14.5">
       <c r="A262" s="3">
         <v>332</v>
       </c>
@@ -9696,7 +9786,7 @@
         <v>Chair No - 261</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" ht="14.5">
       <c r="A263" s="3">
         <v>333</v>
       </c>
@@ -9717,7 +9807,7 @@
         <v>Chair No - 262</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" ht="14.5">
       <c r="A264" s="3">
         <v>334</v>
       </c>
@@ -9738,7 +9828,7 @@
         <v>Chair No - 263</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" ht="14.5">
       <c r="A265" s="3">
         <v>335</v>
       </c>
@@ -9759,7 +9849,7 @@
         <v>Chair No - 264</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" ht="14.5">
       <c r="A266" s="3">
         <v>336</v>
       </c>
@@ -9780,7 +9870,7 @@
         <v>Chair No - 265</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" ht="14.5">
       <c r="A267" s="3">
         <v>337</v>
       </c>
@@ -9801,7 +9891,7 @@
         <v>Chair No - 266</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" ht="14.5">
       <c r="A268" s="3">
         <v>338</v>
       </c>
@@ -9822,7 +9912,7 @@
         <v>Chair No - 267</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" ht="14.5">
       <c r="A269" s="3">
         <v>339</v>
       </c>
@@ -9843,7 +9933,7 @@
         <v>Chair No - 268</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" ht="14.5">
       <c r="A270" s="3">
         <v>340</v>
       </c>
@@ -9864,7 +9954,7 @@
         <v>Chair No - 269</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" ht="14.5">
       <c r="A271" s="3">
         <v>341</v>
       </c>
@@ -9885,7 +9975,7 @@
         <v>Chair No - 270</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" ht="14.5">
       <c r="A272" s="3">
         <v>342</v>
       </c>
@@ -9906,7 +9996,7 @@
         <v>Chair No - 271</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" ht="14.5">
       <c r="A273" s="3">
         <v>343</v>
       </c>
@@ -9927,7 +10017,7 @@
         <v>Chair No - 272</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" ht="14.5">
       <c r="A274" s="3">
         <v>344</v>
       </c>
@@ -9948,7 +10038,7 @@
         <v>Chair No - 273</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" ht="14.5">
       <c r="A275" s="3">
         <v>345</v>
       </c>
@@ -9969,7 +10059,7 @@
         <v>Chair No - 274</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" ht="14.5">
       <c r="A276" s="3">
         <v>346</v>
       </c>
@@ -9990,7 +10080,7 @@
         <v>Chair No - 275</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" ht="14.5">
       <c r="A277" s="3">
         <v>347</v>
       </c>
@@ -10011,7 +10101,7 @@
         <v>Chair No - 276</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" ht="14.5">
       <c r="A278" s="3">
         <v>348</v>
       </c>
@@ -10032,7 +10122,7 @@
         <v>Chair No - 277</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" ht="14.5">
       <c r="A279" s="3">
         <v>349</v>
       </c>
@@ -10053,7 +10143,7 @@
         <v>Chair No - 278</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" ht="14.5">
       <c r="A280" s="3">
         <v>350</v>
       </c>
@@ -10074,7 +10164,7 @@
         <v>Chair No - 279</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" ht="14.5">
       <c r="A281" s="3">
         <v>351</v>
       </c>
@@ -10095,7 +10185,7 @@
         <v>Chair No - 280</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" ht="14.5">
       <c r="A282" s="3">
         <v>352</v>
       </c>
@@ -10116,7 +10206,7 @@
         <v>Chair No - 281</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" ht="14.5">
       <c r="A283" s="3">
         <v>353</v>
       </c>
@@ -10137,7 +10227,7 @@
         <v>Chair No - 282</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" ht="14.5">
       <c r="A284" s="3">
         <v>355</v>
       </c>
@@ -10158,7 +10248,7 @@
         <v>Chair No - 283</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" ht="14.5">
       <c r="A285" s="3">
         <v>356</v>
       </c>
@@ -10179,7 +10269,7 @@
         <v>Chair No - 284</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" ht="14.5">
       <c r="A286" s="3">
         <v>357</v>
       </c>
@@ -10200,7 +10290,7 @@
         <v>Chair No - 285</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" ht="14.5">
       <c r="A287" s="3">
         <v>359</v>
       </c>
@@ -10221,7 +10311,7 @@
         <v>Chair No - 286</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" ht="14.5">
       <c r="A288" s="3">
         <v>360</v>
       </c>
@@ -10242,7 +10332,7 @@
         <v>Chair No - 287</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" ht="14.5">
       <c r="A289" s="3">
         <v>361</v>
       </c>
@@ -10263,7 +10353,7 @@
         <v>Chair No - 288</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="14.5">
       <c r="A290" s="3">
         <v>362</v>
       </c>
@@ -10284,7 +10374,7 @@
         <v>Chair No - 289</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" ht="14.5">
       <c r="A291" s="3">
         <v>363</v>
       </c>
@@ -10305,7 +10395,7 @@
         <v>Chair No - 290</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" ht="14.5">
       <c r="A292" s="3">
         <v>364</v>
       </c>
@@ -10326,7 +10416,7 @@
         <v>Chair No - 291</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" ht="14.5">
       <c r="A293" s="3">
         <v>365</v>
       </c>
@@ -10347,7 +10437,7 @@
         <v>Chair No - 292</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" ht="14.5">
       <c r="A294" s="3">
         <v>367</v>
       </c>
@@ -10368,7 +10458,7 @@
         <v>Chair No - 293</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" ht="14.5">
       <c r="A295" s="3">
         <v>368</v>
       </c>
@@ -10389,7 +10479,7 @@
         <v>Chair No - 294</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" ht="14.5">
       <c r="A296" s="3">
         <v>370</v>
       </c>
@@ -10410,7 +10500,7 @@
         <v>Chair No - 295</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" ht="14.5">
       <c r="A297" s="3">
         <v>371</v>
       </c>
@@ -10431,7 +10521,7 @@
         <v>Chair No - 296</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" ht="14.5">
       <c r="A298" s="3">
         <v>373</v>
       </c>
@@ -10452,7 +10542,7 @@
         <v>Chair No - 297</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" ht="14.5">
       <c r="A299" s="3">
         <v>374</v>
       </c>
@@ -10473,7 +10563,7 @@
         <v>Chair No - 298</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" ht="14.5">
       <c r="A300" s="3">
         <v>375</v>
       </c>
@@ -10494,7 +10584,7 @@
         <v>Chair No - 299</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" ht="14.5">
       <c r="A301" s="3">
         <v>376</v>
       </c>
@@ -10515,7 +10605,7 @@
         <v>Chair No - 300</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="14.5">
       <c r="A302" s="3">
         <v>377</v>
       </c>
@@ -10536,7 +10626,7 @@
         <v>Chair No - 301</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="14.5">
       <c r="A303" s="3">
         <v>378</v>
       </c>
@@ -10557,7 +10647,7 @@
         <v>Chair No - 302</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" ht="14.5">
       <c r="A304" s="3">
         <v>380</v>
       </c>
@@ -10578,7 +10668,7 @@
         <v>Chair No - 303</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" ht="14.5">
       <c r="A305" s="3">
         <v>381</v>
       </c>
@@ -10599,7 +10689,7 @@
         <v>Chair No - 304</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" ht="14.5">
       <c r="A306" s="3">
         <v>382</v>
       </c>
@@ -10620,7 +10710,7 @@
         <v>Chair No - 305</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" ht="14.5">
       <c r="A307" s="3">
         <v>383</v>
       </c>
@@ -10641,7 +10731,7 @@
         <v>Chair No - 306</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" ht="14.5">
       <c r="A308" s="3">
         <v>384</v>
       </c>
@@ -10662,7 +10752,7 @@
         <v>Chair No - 307</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" ht="14.5">
       <c r="A309" s="3">
         <v>386</v>
       </c>
@@ -10683,7 +10773,7 @@
         <v>Chair No - 308</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" ht="14.5">
       <c r="A310" s="3">
         <v>387</v>
       </c>
@@ -10704,7 +10794,7 @@
         <v>Chair No - 309</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" ht="14.5">
       <c r="A311" s="3">
         <v>388</v>
       </c>
@@ -10725,7 +10815,7 @@
         <v>Chair No - 310</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" ht="14.5">
       <c r="A312" s="3">
         <v>389</v>
       </c>
@@ -10746,7 +10836,7 @@
         <v>Chair No - 311</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" ht="14.5">
       <c r="A313" s="3">
         <v>390</v>
       </c>
@@ -10767,7 +10857,7 @@
         <v>Chair No - 312</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" ht="14.5">
       <c r="A314" s="3">
         <v>391</v>
       </c>
@@ -10788,7 +10878,7 @@
         <v>Chair No - 313</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" ht="14.5">
       <c r="A315" s="3">
         <v>392</v>
       </c>
@@ -10809,7 +10899,7 @@
         <v>Chair No - 314</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" ht="14.5">
       <c r="A316" s="3">
         <v>393</v>
       </c>
@@ -10830,7 +10920,7 @@
         <v>Chair No - 315</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" ht="14.5">
       <c r="A317" s="3">
         <v>394</v>
       </c>
@@ -10851,7 +10941,7 @@
         <v>Chair No - 316</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" ht="14.5">
       <c r="A318" s="3">
         <v>395</v>
       </c>
@@ -10872,7 +10962,7 @@
         <v>Chair No - 317</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" ht="14.5">
       <c r="A319" s="3">
         <v>396</v>
       </c>
@@ -10893,7 +10983,7 @@
         <v>Chair No - 318</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" ht="14.5">
       <c r="A320" s="3">
         <v>399</v>
       </c>
@@ -10914,7 +11004,7 @@
         <v>Chair No - 319</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" ht="14.5">
       <c r="A321" s="3">
         <v>400</v>
       </c>
@@ -10935,7 +11025,7 @@
         <v>Chair No - 320</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" ht="14.5">
       <c r="A322" s="3">
         <v>401</v>
       </c>
@@ -10952,11 +11042,11 @@
         <v>321</v>
       </c>
       <c r="F322" s="3" t="str">
-        <f t="shared" ref="F322:F385" si="5">CONCATENATE(D322," No - ",E322)</f>
+        <f t="shared" si="5" ref="F322:F385">CONCATENATE(D322," No - ",E322)</f>
         <v>Chair No - 321</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" ht="14.5">
       <c r="A323" s="3">
         <v>403</v>
       </c>
@@ -10977,7 +11067,7 @@
         <v>Chair No - 322</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" ht="14.5">
       <c r="A324" s="3">
         <v>405</v>
       </c>
@@ -10998,7 +11088,7 @@
         <v>Chair No - 323</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" ht="14.5">
       <c r="A325" s="3">
         <v>407</v>
       </c>
@@ -11019,7 +11109,7 @@
         <v>Chair No - 324</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" ht="14.5">
       <c r="A326" s="3">
         <v>410</v>
       </c>
@@ -11040,7 +11130,7 @@
         <v>Chair No - 325</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" ht="14.5">
       <c r="A327" s="3">
         <v>411</v>
       </c>
@@ -11061,7 +11151,7 @@
         <v>Chair No - 326</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" ht="14.5">
       <c r="A328" s="3">
         <v>413</v>
       </c>
@@ -11082,7 +11172,7 @@
         <v>Chair No - 327</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" ht="14.5">
       <c r="A329" s="3">
         <v>415</v>
       </c>
@@ -11103,7 +11193,7 @@
         <v>Chair No - 328</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" ht="14.5">
       <c r="A330" s="3">
         <v>417</v>
       </c>
@@ -11124,7 +11214,7 @@
         <v>Chair No - 329</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" ht="14.5">
       <c r="A331" s="3">
         <v>418</v>
       </c>
@@ -11145,7 +11235,7 @@
         <v>Chair No - 330</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" ht="14.5">
       <c r="A332" s="3">
         <v>419</v>
       </c>
@@ -11166,7 +11256,7 @@
         <v>Chair No - 331</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" ht="14.5">
       <c r="A333" s="3">
         <v>420</v>
       </c>
@@ -11187,7 +11277,7 @@
         <v>Chair No - 332</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" ht="14.5">
       <c r="A334" s="3">
         <v>421</v>
       </c>
@@ -11208,7 +11298,7 @@
         <v>Chair No - 333</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" ht="14.5">
       <c r="A335" s="3">
         <v>422</v>
       </c>
@@ -11229,7 +11319,7 @@
         <v>Chair No - 334</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" ht="14.5">
       <c r="A336" s="3">
         <v>424</v>
       </c>
@@ -11250,7 +11340,7 @@
         <v>Chair No - 335</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" ht="14.5">
       <c r="A337" s="3">
         <v>426</v>
       </c>
@@ -11271,7 +11361,7 @@
         <v>Chair No - 336</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" ht="14.5">
       <c r="A338" s="3">
         <v>427</v>
       </c>
@@ -11292,7 +11382,7 @@
         <v>Chair No - 337</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" ht="14.5">
       <c r="A339" s="3">
         <v>428</v>
       </c>
@@ -11313,7 +11403,7 @@
         <v>Chair No - 338</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" ht="14.5">
       <c r="A340" s="3">
         <v>430</v>
       </c>
@@ -11334,7 +11424,7 @@
         <v>Chair No - 339</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" ht="14.5">
       <c r="A341" s="3">
         <v>431</v>
       </c>
@@ -11355,7 +11445,7 @@
         <v>Chair No - 340</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" ht="14.5">
       <c r="A342" s="3">
         <v>432</v>
       </c>
@@ -11376,7 +11466,7 @@
         <v>Chair No - 341</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" ht="14.5">
       <c r="A343" s="3">
         <v>434</v>
       </c>
@@ -11397,7 +11487,7 @@
         <v>Chair No - 342</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" ht="14.5">
       <c r="A344" s="3">
         <v>436</v>
       </c>
@@ -11418,7 +11508,7 @@
         <v>Chair No - 343</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" ht="14.5">
       <c r="A345" s="3">
         <v>438</v>
       </c>
@@ -11439,7 +11529,7 @@
         <v>Chair No - 344</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" ht="14.5">
       <c r="A346" s="3">
         <v>439</v>
       </c>
@@ -11460,7 +11550,7 @@
         <v>Chair No - 345</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" ht="14.5">
       <c r="A347" s="3">
         <v>440</v>
       </c>
@@ -11481,7 +11571,7 @@
         <v>Chair No - 346</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" ht="14.5">
       <c r="A348" s="3">
         <v>444</v>
       </c>
@@ -11502,7 +11592,7 @@
         <v>Chair No - 347</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" ht="14.5">
       <c r="A349" s="3">
         <v>445</v>
       </c>
@@ -11523,7 +11613,7 @@
         <v>Chair No - 348</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" ht="14.5">
       <c r="A350" s="3">
         <v>446</v>
       </c>
@@ -11544,7 +11634,7 @@
         <v>Chair No - 349</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" ht="14.5">
       <c r="A351" s="3">
         <v>447</v>
       </c>
@@ -11565,7 +11655,7 @@
         <v>Chair No - 350</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" ht="14.5">
       <c r="A352" s="3">
         <v>448</v>
       </c>
@@ -11586,7 +11676,7 @@
         <v>Chair No - 351</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" ht="14.5">
       <c r="A353" s="3">
         <v>449</v>
       </c>
@@ -11607,7 +11697,7 @@
         <v>Chair No - 352</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" ht="14.5">
       <c r="A354" s="3">
         <v>450</v>
       </c>
@@ -11628,7 +11718,7 @@
         <v>Chair No - 353</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" ht="14.5">
       <c r="A355" s="3">
         <v>451</v>
       </c>
@@ -11649,7 +11739,7 @@
         <v>Chair No - 354</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" ht="14.5">
       <c r="A356" s="3">
         <v>453</v>
       </c>
@@ -11670,7 +11760,7 @@
         <v>Chair No - 355</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" ht="14.5">
       <c r="A357" s="3">
         <v>454</v>
       </c>
@@ -11691,7 +11781,7 @@
         <v>Chair No - 356</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" ht="14.5">
       <c r="A358" s="3">
         <v>455</v>
       </c>
@@ -11712,7 +11802,7 @@
         <v>Chair No - 357</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" ht="14.5">
       <c r="A359" s="3">
         <v>456</v>
       </c>
@@ -11733,7 +11823,7 @@
         <v>Chair No - 358</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" ht="14.5">
       <c r="A360" s="3">
         <v>457</v>
       </c>
@@ -11754,7 +11844,7 @@
         <v>Chair No - 359</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" ht="14.5">
       <c r="A361" s="3">
         <v>460</v>
       </c>
@@ -11775,7 +11865,7 @@
         <v>Chair No - 360</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" ht="14.5">
       <c r="A362" s="3">
         <v>461</v>
       </c>
@@ -11796,7 +11886,7 @@
         <v>Chair No - 361</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" ht="14.5">
       <c r="A363" s="3">
         <v>462</v>
       </c>
@@ -11817,7 +11907,7 @@
         <v>Chair No - 362</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" ht="14.5">
       <c r="A364" s="3">
         <v>463</v>
       </c>
@@ -11838,7 +11928,7 @@
         <v>Chair No - 363</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" ht="14.5">
       <c r="A365" s="3">
         <v>465</v>
       </c>
@@ -11859,7 +11949,7 @@
         <v>Chair No - 364</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" ht="14.5">
       <c r="A366" s="3">
         <v>466</v>
       </c>
@@ -11880,7 +11970,7 @@
         <v>Chair No - 365</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" ht="14.5">
       <c r="A367" s="3">
         <v>467</v>
       </c>
@@ -11901,7 +11991,7 @@
         <v>Chair No - 366</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" ht="14.5">
       <c r="A368" s="3">
         <v>469</v>
       </c>
@@ -11922,7 +12012,7 @@
         <v>Chair No - 367</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" ht="14.5">
       <c r="A369" s="3">
         <v>470</v>
       </c>
@@ -11943,7 +12033,7 @@
         <v>Chair No - 368</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" ht="14.5">
       <c r="A370" s="3">
         <v>471</v>
       </c>
@@ -11964,7 +12054,7 @@
         <v>Chair No - 369</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" ht="14.5">
       <c r="A371" s="3">
         <v>472</v>
       </c>
@@ -11985,7 +12075,7 @@
         <v>Chair No - 370</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" ht="14.5">
       <c r="A372" s="3">
         <v>475</v>
       </c>
@@ -12006,7 +12096,7 @@
         <v>Chair No - 371</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" ht="14.5">
       <c r="A373" s="3">
         <v>476</v>
       </c>
@@ -12027,7 +12117,7 @@
         <v>Chair No - 372</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" ht="14.5">
       <c r="A374" s="3">
         <v>478</v>
       </c>
@@ -12048,7 +12138,7 @@
         <v>Chair No - 373</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" ht="14.5">
       <c r="A375" s="3">
         <v>479</v>
       </c>
@@ -12069,7 +12159,7 @@
         <v>Chair No - 374</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" ht="14.5">
       <c r="A376" s="3">
         <v>480</v>
       </c>
@@ -12090,7 +12180,7 @@
         <v>Chair No - 375</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" ht="14.5">
       <c r="A377" s="3">
         <v>481</v>
       </c>
@@ -12111,7 +12201,7 @@
         <v>Chair No - 376</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" ht="14.5">
       <c r="A378" s="3">
         <v>482</v>
       </c>
@@ -12132,7 +12222,7 @@
         <v>Chair No - 377</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" ht="14.5">
       <c r="A379" s="3">
         <v>483</v>
       </c>
@@ -12153,7 +12243,7 @@
         <v>Chair No - 378</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" ht="14.5">
       <c r="A380" s="3">
         <v>484</v>
       </c>
@@ -12174,7 +12264,7 @@
         <v>Chair No - 379</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" ht="14.5">
       <c r="A381" s="3">
         <v>485</v>
       </c>
@@ -12195,7 +12285,7 @@
         <v>Chair No - 380</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" ht="14.5">
       <c r="A382" s="3">
         <v>486</v>
       </c>
@@ -12216,7 +12306,7 @@
         <v>Chair No - 381</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" ht="14.5">
       <c r="A383" s="3">
         <v>487</v>
       </c>
@@ -12237,7 +12327,7 @@
         <v>Chair No - 382</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" ht="14.5">
       <c r="A384" s="3">
         <v>488</v>
       </c>
@@ -12258,7 +12348,7 @@
         <v>Chair No - 383</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" ht="14.5">
       <c r="A385" s="3">
         <v>489</v>
       </c>
@@ -12279,7 +12369,7 @@
         <v>Chair No - 384</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" ht="14.5">
       <c r="A386" s="3">
         <v>490</v>
       </c>
@@ -12296,11 +12386,11 @@
         <v>385</v>
       </c>
       <c r="F386" s="3" t="str">
-        <f t="shared" ref="F386:F449" si="6">CONCATENATE(D386," No - ",E386)</f>
+        <f t="shared" si="6" ref="F386:F449">CONCATENATE(D386," No - ",E386)</f>
         <v>Chair No - 385</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" ht="14.5">
       <c r="A387" s="3">
         <v>491</v>
       </c>
@@ -12321,7 +12411,7 @@
         <v>Chair No - 386</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" ht="14.5">
       <c r="A388" s="3">
         <v>492</v>
       </c>
@@ -12342,7 +12432,7 @@
         <v>Chair No - 387</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" ht="14.5">
       <c r="A389" s="3">
         <v>493</v>
       </c>
@@ -12363,7 +12453,7 @@
         <v>Chair No - 388</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" ht="14.5">
       <c r="A390" s="3">
         <v>494</v>
       </c>
@@ -12384,7 +12474,7 @@
         <v>Chair No - 389</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" ht="14.5">
       <c r="A391" s="3">
         <v>495</v>
       </c>
@@ -12405,7 +12495,7 @@
         <v>Chair No - 390</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" ht="14.5">
       <c r="A392" s="3">
         <v>496</v>
       </c>
@@ -12426,7 +12516,7 @@
         <v>Chair No - 391</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" ht="14.5">
       <c r="A393" s="3">
         <v>497</v>
       </c>
@@ -12447,7 +12537,7 @@
         <v>Chair No - 392</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" ht="14.5">
       <c r="A394" s="3">
         <v>498</v>
       </c>
@@ -12468,7 +12558,7 @@
         <v>Chair No - 393</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" ht="14.5">
       <c r="A395" s="3">
         <v>499</v>
       </c>
@@ -12489,7 +12579,7 @@
         <v>Chair No - 394</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" ht="14.5">
       <c r="A396" s="3">
         <v>500</v>
       </c>
@@ -12510,7 +12600,7 @@
         <v>Chair No - 395</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" ht="14.5">
       <c r="A397" s="3">
         <v>501</v>
       </c>
@@ -12531,7 +12621,7 @@
         <v>Chair No - 396</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" ht="14.5">
       <c r="A398" s="3">
         <v>502</v>
       </c>
@@ -12552,7 +12642,7 @@
         <v>Chair No - 397</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" ht="14.5">
       <c r="A399" s="3">
         <v>503</v>
       </c>
@@ -12573,7 +12663,7 @@
         <v>Chair No - 398</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" ht="14.5">
       <c r="A400" s="3">
         <v>504</v>
       </c>
@@ -12594,7 +12684,7 @@
         <v>Chair No - 399</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" ht="14.5">
       <c r="A401" s="3">
         <v>505</v>
       </c>
@@ -12615,7 +12705,7 @@
         <v>Chair No - 400</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" ht="14.5">
       <c r="A402" s="3">
         <v>506</v>
       </c>
@@ -12636,7 +12726,7 @@
         <v>Chair No - 401</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" ht="14.5">
       <c r="A403" s="3">
         <v>507</v>
       </c>
@@ -12657,7 +12747,7 @@
         <v>Chair No - 402</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" ht="14.5">
       <c r="A404" s="3">
         <v>508</v>
       </c>
@@ -12678,7 +12768,7 @@
         <v>Chair No - 403</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" ht="14.5">
       <c r="A405" s="3">
         <v>509</v>
       </c>
@@ -12699,7 +12789,7 @@
         <v>Chair No - 404</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" ht="14.5">
       <c r="A406" s="3">
         <v>510</v>
       </c>
@@ -12720,7 +12810,7 @@
         <v>Chair No - 405</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" ht="14.5">
       <c r="A407" s="3">
         <v>511</v>
       </c>
@@ -12741,7 +12831,7 @@
         <v>Chair No - 406</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" ht="14.5">
       <c r="A408" s="3">
         <v>512</v>
       </c>
@@ -12762,7 +12852,7 @@
         <v>Chair No - 407</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" ht="14.5">
       <c r="A409" s="3">
         <v>513</v>
       </c>
@@ -12783,7 +12873,7 @@
         <v>Chair No - 408</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" ht="14.5">
       <c r="A410" s="3">
         <v>514</v>
       </c>
@@ -12804,7 +12894,7 @@
         <v>Chair No - 409</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" ht="14.5">
       <c r="A411" s="3">
         <v>515</v>
       </c>
@@ -12825,7 +12915,7 @@
         <v>Chair No - 410</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" ht="14.5">
       <c r="A412" s="3">
         <v>516</v>
       </c>
@@ -12846,7 +12936,7 @@
         <v>Chair No - 411</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" ht="14.5">
       <c r="A413" s="3">
         <v>517</v>
       </c>
@@ -12867,7 +12957,7 @@
         <v>Chair No - 412</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" ht="14.5">
       <c r="A414" s="3">
         <v>518</v>
       </c>
@@ -12888,7 +12978,7 @@
         <v>Chair No - 413</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" ht="14.5">
       <c r="A415" s="3">
         <v>519</v>
       </c>
@@ -12909,7 +12999,7 @@
         <v>Chair No - 414</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" ht="14.5">
       <c r="A416" s="3">
         <v>520</v>
       </c>
@@ -12930,7 +13020,7 @@
         <v>Chair No - 415</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" ht="14.5">
       <c r="A417" s="3">
         <v>521</v>
       </c>
@@ -12951,7 +13041,7 @@
         <v>Chair No - 416</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" ht="14.5">
       <c r="A418" s="3">
         <v>522</v>
       </c>
@@ -12972,7 +13062,7 @@
         <v>Chair No - 417</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" ht="14.5">
       <c r="A419" s="3">
         <v>523</v>
       </c>
@@ -12993,7 +13083,7 @@
         <v>Chair No - 418</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" ht="14.5">
       <c r="A420" s="3">
         <v>524</v>
       </c>
@@ -13014,7 +13104,7 @@
         <v>Chair No - 419</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" ht="14.5">
       <c r="A421" s="3">
         <v>525</v>
       </c>
@@ -13035,7 +13125,7 @@
         <v>Chair No - 420</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" ht="14.5">
       <c r="A422" s="3">
         <v>526</v>
       </c>
@@ -13056,7 +13146,7 @@
         <v>Chair No - 421</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" ht="14.5">
       <c r="A423" s="3">
         <v>527</v>
       </c>
@@ -13077,7 +13167,7 @@
         <v>Chair No - 422</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" ht="14.5">
       <c r="A424" s="3">
         <v>528</v>
       </c>
@@ -13098,7 +13188,7 @@
         <v>Chair No - 423</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" ht="14.5">
       <c r="A425" s="3">
         <v>529</v>
       </c>
@@ -13119,7 +13209,7 @@
         <v>Chair No - 424</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" ht="14.5">
       <c r="A426" s="3">
         <v>530</v>
       </c>
@@ -13140,7 +13230,7 @@
         <v>Chair No - 425</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" ht="14.5">
       <c r="A427" s="3">
         <v>531</v>
       </c>
@@ -13161,7 +13251,7 @@
         <v>Chair No - 426</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" ht="14.5">
       <c r="A428" s="3">
         <v>532</v>
       </c>
@@ -13182,7 +13272,7 @@
         <v>Chair No - 427</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" ht="14.5">
       <c r="A429" s="3">
         <v>533</v>
       </c>
@@ -13203,7 +13293,7 @@
         <v>Chair No - 428</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" ht="14.5">
       <c r="A430" s="3">
         <v>534</v>
       </c>
@@ -13224,7 +13314,7 @@
         <v>Chair No - 429</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" ht="14.5">
       <c r="A431" s="3">
         <v>535</v>
       </c>
@@ -13245,7 +13335,7 @@
         <v>Chair No - 430</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" ht="14.5">
       <c r="A432" s="3">
         <v>536</v>
       </c>
@@ -13266,7 +13356,7 @@
         <v>Chair No - 431</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" ht="14.5">
       <c r="A433" s="3">
         <v>537</v>
       </c>
@@ -13287,7 +13377,7 @@
         <v>Chair No - 432</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" ht="14.5">
       <c r="A434" s="3">
         <v>538</v>
       </c>
@@ -13308,7 +13398,7 @@
         <v>Chair No - 433</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" ht="14.5">
       <c r="A435" s="3">
         <v>539</v>
       </c>
@@ -13329,7 +13419,7 @@
         <v>Chair No - 434</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" ht="14.5">
       <c r="A436" s="3">
         <v>540</v>
       </c>
@@ -13350,7 +13440,7 @@
         <v>Chair No - 435</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" ht="14.5">
       <c r="A437" s="3">
         <v>541</v>
       </c>
@@ -13371,7 +13461,7 @@
         <v>Chair No - 436</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" ht="14.5">
       <c r="A438" s="3">
         <v>542</v>
       </c>
@@ -13392,7 +13482,7 @@
         <v>Chair No - 437</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" ht="14.5">
       <c r="A439" s="3">
         <v>543</v>
       </c>
@@ -13413,7 +13503,7 @@
         <v>Chair No - 438</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" ht="14.5">
       <c r="A440" s="3">
         <v>544</v>
       </c>
@@ -13434,7 +13524,7 @@
         <v>Chair No - 439</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" ht="14.5">
       <c r="A441" s="3">
         <v>545</v>
       </c>
@@ -13455,7 +13545,7 @@
         <v>Chair No - 440</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" ht="14.5">
       <c r="A442" s="3">
         <v>546</v>
       </c>
@@ -13476,7 +13566,7 @@
         <v>Chair No - 441</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" ht="14.5">
       <c r="A443" s="3">
         <v>547</v>
       </c>
@@ -13497,7 +13587,7 @@
         <v>Chair No - 442</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" ht="14.5">
       <c r="A444" s="3">
         <v>548</v>
       </c>
@@ -13518,7 +13608,7 @@
         <v>Chair No - 443</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" ht="14.5">
       <c r="A445" s="3">
         <v>549</v>
       </c>
@@ -13539,7 +13629,7 @@
         <v>Chair No - 444</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" ht="14.5">
       <c r="A446" s="3">
         <v>550</v>
       </c>
@@ -13560,7 +13650,7 @@
         <v>Chair No - 445</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" ht="14.5">
       <c r="A447" s="3">
         <v>551</v>
       </c>
@@ -13581,7 +13671,7 @@
         <v>Chair No - 446</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" ht="14.5">
       <c r="A448" s="3">
         <v>552</v>
       </c>
@@ -13602,7 +13692,7 @@
         <v>Chair No - 447</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" ht="14.5">
       <c r="A449" s="3">
         <v>553</v>
       </c>
@@ -13623,7 +13713,7 @@
         <v>Chair No - 448</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" ht="14.5">
       <c r="A450" s="3">
         <v>554</v>
       </c>
@@ -13640,11 +13730,11 @@
         <v>449</v>
       </c>
       <c r="F450" s="3" t="str">
-        <f t="shared" ref="F450:F513" si="7">CONCATENATE(D450," No - ",E450)</f>
+        <f t="shared" si="7" ref="F450:F513">CONCATENATE(D450," No - ",E450)</f>
         <v>Chair No - 449</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" ht="14.5">
       <c r="A451" s="3">
         <v>566</v>
       </c>
@@ -13665,7 +13755,7 @@
         <v>Chair No - 450</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" ht="14.5">
       <c r="A452" s="3">
         <v>567</v>
       </c>
@@ -13686,7 +13776,7 @@
         <v>Chair No - 451</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" ht="14.5">
       <c r="A453" s="3">
         <v>568</v>
       </c>
@@ -13707,7 +13797,7 @@
         <v>Chair No - 452</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" ht="14.5">
       <c r="A454" s="3">
         <v>569</v>
       </c>
@@ -13728,7 +13818,7 @@
         <v>Chair No - 453</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" ht="14.5">
       <c r="A455" s="3">
         <v>570</v>
       </c>
@@ -13749,7 +13839,7 @@
         <v>Chair No - 454</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" ht="14.5">
       <c r="A456" s="3">
         <v>571</v>
       </c>
@@ -13770,7 +13860,7 @@
         <v>Chair No - 455</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" ht="14.5">
       <c r="A457" s="3">
         <v>572</v>
       </c>
@@ -13791,7 +13881,7 @@
         <v>Chair No - 456</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" ht="14.5">
       <c r="A458" s="3">
         <v>573</v>
       </c>
@@ -13812,7 +13902,7 @@
         <v>Chair No - 457</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" ht="14.5">
       <c r="A459" s="3">
         <v>574</v>
       </c>
@@ -13833,7 +13923,7 @@
         <v>Chair No - 458</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" ht="14.5">
       <c r="A460" s="3">
         <v>575</v>
       </c>
@@ -13854,7 +13944,7 @@
         <v>Chair No - 459</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" ht="14.5">
       <c r="A461" s="3">
         <v>576</v>
       </c>
@@ -13875,7 +13965,7 @@
         <v>Chair No - 460</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" ht="14.5">
       <c r="A462" s="3">
         <v>577</v>
       </c>
@@ -13896,7 +13986,7 @@
         <v>Chair No - 461</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" ht="14.5">
       <c r="A463" s="3">
         <v>578</v>
       </c>
@@ -13917,7 +14007,7 @@
         <v>Chair No - 462</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" ht="14.5">
       <c r="A464" s="3">
         <v>579</v>
       </c>
@@ -13938,7 +14028,7 @@
         <v>Chair No - 463</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" ht="14.5">
       <c r="A465" s="3">
         <v>580</v>
       </c>
@@ -13959,7 +14049,7 @@
         <v>Chair No - 464</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" ht="14.5">
       <c r="A466" s="3">
         <v>581</v>
       </c>
@@ -13980,7 +14070,7 @@
         <v>Chair No - 465</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" ht="14.5">
       <c r="A467" s="3">
         <v>582</v>
       </c>
@@ -14001,7 +14091,7 @@
         <v>Chair No - 466</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" ht="14.5">
       <c r="A468" s="3">
         <v>583</v>
       </c>
@@ -14022,7 +14112,7 @@
         <v>Chair No - 467</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" ht="14.5">
       <c r="A469" s="3">
         <v>584</v>
       </c>
@@ -14043,7 +14133,7 @@
         <v>Chair No - 468</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" ht="14.5">
       <c r="A470" s="3">
         <v>585</v>
       </c>
@@ -14064,7 +14154,7 @@
         <v>Chair No - 469</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" ht="14.5">
       <c r="A471" s="3">
         <v>586</v>
       </c>
@@ -14085,7 +14175,7 @@
         <v>Chair No - 470</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" ht="14.5">
       <c r="A472" s="3">
         <v>587</v>
       </c>
@@ -14106,7 +14196,7 @@
         <v>Chair No - 471</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" ht="14.5">
       <c r="A473" s="3">
         <v>588</v>
       </c>
@@ -14127,7 +14217,7 @@
         <v>Chair No - 472</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" ht="14.5">
       <c r="A474" s="3">
         <v>589</v>
       </c>
@@ -14148,7 +14238,7 @@
         <v>Chair No - 473</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" ht="14.5">
       <c r="A475" s="3">
         <v>590</v>
       </c>
@@ -14169,7 +14259,7 @@
         <v>Chair No - 474</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" ht="14.5">
       <c r="A476" s="3">
         <v>591</v>
       </c>
@@ -14190,7 +14280,7 @@
         <v>Chair No - 475</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" ht="14.5">
       <c r="A477" s="3">
         <v>592</v>
       </c>
@@ -14211,7 +14301,7 @@
         <v>Chair No - 476</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" ht="14.5">
       <c r="A478" s="3">
         <v>593</v>
       </c>
@@ -14232,7 +14322,7 @@
         <v>Chair No - 477</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" ht="14.5">
       <c r="A479" s="3">
         <v>594</v>
       </c>
@@ -14253,7 +14343,7 @@
         <v>Chair No - 478</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" ht="14.5">
       <c r="A480" s="3">
         <v>595</v>
       </c>
@@ -14274,7 +14364,7 @@
         <v>Chair No - 479</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" ht="14.5">
       <c r="A481" s="3">
         <v>596</v>
       </c>
@@ -14295,7 +14385,7 @@
         <v>Chair No - 480</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" ht="14.5">
       <c r="A482" s="3">
         <v>2</v>
       </c>
@@ -14316,7 +14406,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" ht="14.5">
       <c r="A483" s="3">
         <v>15</v>
       </c>
@@ -14337,7 +14427,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" ht="14.5">
       <c r="A484" s="3">
         <v>19</v>
       </c>
@@ -14358,7 +14448,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" ht="14.5">
       <c r="A485" s="3">
         <v>22</v>
       </c>
@@ -14379,7 +14469,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" ht="14.5">
       <c r="A486" s="3">
         <v>31</v>
       </c>
@@ -14400,7 +14490,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" ht="14.5">
       <c r="A487" s="3">
         <v>43</v>
       </c>
@@ -14421,7 +14511,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" ht="14.5">
       <c r="A488" s="3">
         <v>47</v>
       </c>
@@ -14442,7 +14532,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" ht="14.5">
       <c r="A489" s="3">
         <v>48</v>
       </c>
@@ -14463,7 +14553,7 @@
         <v>Table No - 1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" ht="14.5">
       <c r="A490" s="3">
         <v>52</v>
       </c>
@@ -14484,7 +14574,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" ht="14.5">
       <c r="A491" s="3">
         <v>53</v>
       </c>
@@ -14505,7 +14595,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" ht="14.5">
       <c r="A492" s="3">
         <v>54</v>
       </c>
@@ -14526,7 +14616,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" ht="14.5">
       <c r="A493" s="3">
         <v>57</v>
       </c>
@@ -14547,7 +14637,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" ht="14.5">
       <c r="A494" s="3">
         <v>58</v>
       </c>
@@ -14568,7 +14658,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" ht="14.5">
       <c r="A495" s="3">
         <v>61</v>
       </c>
@@ -14589,7 +14679,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" ht="14.5">
       <c r="A496" s="3">
         <v>67</v>
       </c>
@@ -14610,7 +14700,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:6" ht="14.5">
       <c r="A497" s="3">
         <v>68</v>
       </c>
@@ -14631,7 +14721,7 @@
         <v>Table No - 2</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:6" ht="14.5">
       <c r="A498" s="3">
         <v>69</v>
       </c>
@@ -14652,7 +14742,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:6" ht="14.5">
       <c r="A499" s="3">
         <v>72</v>
       </c>
@@ -14673,7 +14763,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:6" ht="14.5">
       <c r="A500" s="3">
         <v>83</v>
       </c>
@@ -14694,7 +14784,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:6" ht="14.5">
       <c r="A501" s="3">
         <v>84</v>
       </c>
@@ -14715,7 +14805,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:6" ht="14.5">
       <c r="A502" s="3">
         <v>90</v>
       </c>
@@ -14736,7 +14826,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:6" ht="14.5">
       <c r="A503" s="3">
         <v>92</v>
       </c>
@@ -14757,7 +14847,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:6" ht="14.5">
       <c r="A504" s="3">
         <v>99</v>
       </c>
@@ -14778,7 +14868,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:6" ht="14.5">
       <c r="A505" s="3">
         <v>102</v>
       </c>
@@ -14799,7 +14889,7 @@
         <v>Table No - 3</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:6" ht="14.5">
       <c r="A506" s="3">
         <v>106</v>
       </c>
@@ -14820,7 +14910,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:6" ht="14.5">
       <c r="A507" s="3">
         <v>111</v>
       </c>
@@ -14841,7 +14931,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:6" ht="14.5">
       <c r="A508" s="3">
         <v>112</v>
       </c>
@@ -14862,7 +14952,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:6" ht="14.5">
       <c r="A509" s="3">
         <v>113</v>
       </c>
@@ -14883,7 +14973,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:6" ht="14.5">
       <c r="A510" s="3">
         <v>114</v>
       </c>
@@ -14904,7 +14994,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:6" ht="14.5">
       <c r="A511" s="3">
         <v>116</v>
       </c>
@@ -14925,7 +15015,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:6" ht="14.5">
       <c r="A512" s="3">
         <v>117</v>
       </c>
@@ -14946,7 +15036,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:6" ht="14.5">
       <c r="A513" s="3">
         <v>123</v>
       </c>
@@ -14967,7 +15057,7 @@
         <v>Table No - 4</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:6" ht="14.5">
       <c r="A514" s="3">
         <v>125</v>
       </c>
@@ -14984,11 +15074,11 @@
         <v>5</v>
       </c>
       <c r="F514" s="3" t="str">
-        <f t="shared" ref="F514:F577" si="8">CONCATENATE(D514," No - ",E514)</f>
+        <f t="shared" si="8" ref="F514:F577">CONCATENATE(D514," No - ",E514)</f>
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:6" ht="14.5">
       <c r="A515" s="3">
         <v>133</v>
       </c>
@@ -15009,7 +15099,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:6" ht="14.5">
       <c r="A516" s="3">
         <v>134</v>
       </c>
@@ -15030,7 +15120,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:6" ht="14.5">
       <c r="A517" s="3">
         <v>140</v>
       </c>
@@ -15051,7 +15141,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:6" ht="14.5">
       <c r="A518" s="3">
         <v>145</v>
       </c>
@@ -15072,7 +15162,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:6" ht="14.5">
       <c r="A519" s="3">
         <v>146</v>
       </c>
@@ -15093,7 +15183,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:6" ht="14.5">
       <c r="A520" s="3">
         <v>150</v>
       </c>
@@ -15114,7 +15204,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:6" ht="14.5">
       <c r="A521" s="3">
         <v>151</v>
       </c>
@@ -15135,7 +15225,7 @@
         <v>Table No - 5</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:6" ht="14.5">
       <c r="A522" s="3">
         <v>154</v>
       </c>
@@ -15156,7 +15246,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:6" ht="14.5">
       <c r="A523" s="3">
         <v>156</v>
       </c>
@@ -15177,7 +15267,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:6" ht="14.5">
       <c r="A524" s="3">
         <v>157</v>
       </c>
@@ -15198,7 +15288,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:6" ht="14.5">
       <c r="A525" s="3">
         <v>164</v>
       </c>
@@ -15219,7 +15309,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:6" ht="14.5">
       <c r="A526" s="3">
         <v>165</v>
       </c>
@@ -15240,7 +15330,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:6" ht="14.5">
       <c r="A527" s="3">
         <v>169</v>
       </c>
@@ -15261,7 +15351,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:6" ht="14.5">
       <c r="A528" s="3">
         <v>171</v>
       </c>
@@ -15282,7 +15372,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:6" ht="14.5">
       <c r="A529" s="3">
         <v>173</v>
       </c>
@@ -15303,7 +15393,7 @@
         <v>Table No - 6</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:6" ht="14.5">
       <c r="A530" s="3">
         <v>175</v>
       </c>
@@ -15324,7 +15414,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:6" ht="14.5">
       <c r="A531" s="3">
         <v>180</v>
       </c>
@@ -15345,7 +15435,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:6" ht="14.5">
       <c r="A532" s="3">
         <v>183</v>
       </c>
@@ -15366,7 +15456,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:6" ht="14.5">
       <c r="A533" s="3">
         <v>189</v>
       </c>
@@ -15387,7 +15477,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:6" ht="14.5">
       <c r="A534" s="3">
         <v>191</v>
       </c>
@@ -15408,7 +15498,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:6" ht="14.5">
       <c r="A535" s="3">
         <v>200</v>
       </c>
@@ -15429,7 +15519,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:6" ht="14.5">
       <c r="A536" s="3">
         <v>215</v>
       </c>
@@ -15450,7 +15540,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:6" ht="14.5">
       <c r="A537" s="3">
         <v>217</v>
       </c>
@@ -15471,7 +15561,7 @@
         <v>Table No - 7</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:6" ht="14.5">
       <c r="A538" s="3">
         <v>235</v>
       </c>
@@ -15492,7 +15582,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:6" ht="14.5">
       <c r="A539" s="3">
         <v>237</v>
       </c>
@@ -15513,7 +15603,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:6" ht="14.5">
       <c r="A540" s="3">
         <v>239</v>
       </c>
@@ -15534,7 +15624,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:6" ht="14.5">
       <c r="A541" s="3">
         <v>251</v>
       </c>
@@ -15555,7 +15645,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:6" ht="14.5">
       <c r="A542" s="3">
         <v>252</v>
       </c>
@@ -15576,7 +15666,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:6" ht="14.5">
       <c r="A543" s="3">
         <v>277</v>
       </c>
@@ -15597,7 +15687,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:6" ht="14.5">
       <c r="A544" s="3">
         <v>292</v>
       </c>
@@ -15618,7 +15708,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:6" ht="14.5">
       <c r="A545" s="3">
         <v>293</v>
       </c>
@@ -15639,7 +15729,7 @@
         <v>Table No - 8</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:6" ht="14.5">
       <c r="A546" s="3">
         <v>305</v>
       </c>
@@ -15660,7 +15750,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:6" ht="14.5">
       <c r="A547" s="3">
         <v>306</v>
       </c>
@@ -15681,7 +15771,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:6" ht="14.5">
       <c r="A548" s="3">
         <v>308</v>
       </c>
@@ -15702,7 +15792,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:6" ht="14.5">
       <c r="A549" s="3">
         <v>309</v>
       </c>
@@ -15723,7 +15813,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:6" ht="14.5">
       <c r="A550" s="3">
         <v>323</v>
       </c>
@@ -15744,7 +15834,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:6" ht="14.5">
       <c r="A551" s="3">
         <v>327</v>
       </c>
@@ -15765,7 +15855,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:6" ht="14.5">
       <c r="A552" s="3">
         <v>328</v>
       </c>
@@ -15786,7 +15876,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:6" ht="14.5">
       <c r="A553" s="3">
         <v>354</v>
       </c>
@@ -15807,7 +15897,7 @@
         <v>Table No - 9</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:6" ht="14.5">
       <c r="A554" s="3">
         <v>358</v>
       </c>
@@ -15828,7 +15918,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:6" ht="14.5">
       <c r="A555" s="3">
         <v>366</v>
       </c>
@@ -15849,7 +15939,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:6" ht="14.5">
       <c r="A556" s="3">
         <v>369</v>
       </c>
@@ -15870,7 +15960,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:6" ht="14.5">
       <c r="A557" s="3">
         <v>372</v>
       </c>
@@ -15891,7 +15981,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:6" ht="14.5">
       <c r="A558" s="3">
         <v>379</v>
       </c>
@@ -15912,7 +16002,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:6" ht="14.5">
       <c r="A559" s="3">
         <v>385</v>
       </c>
@@ -15933,7 +16023,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:6" ht="14.5">
       <c r="A560" s="3">
         <v>397</v>
       </c>
@@ -15954,7 +16044,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:6" ht="14.5">
       <c r="A561" s="3">
         <v>398</v>
       </c>
@@ -15975,7 +16065,7 @@
         <v>Table No - 10</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:6" ht="14.5">
       <c r="A562" s="3">
         <v>402</v>
       </c>
@@ -15996,7 +16086,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:6" ht="14.5">
       <c r="A563" s="3">
         <v>404</v>
       </c>
@@ -16017,7 +16107,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:6" ht="14.5">
       <c r="A564" s="3">
         <v>406</v>
       </c>
@@ -16038,7 +16128,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:6" ht="14.5">
       <c r="A565" s="3">
         <v>408</v>
       </c>
@@ -16059,7 +16149,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:6" ht="14.5">
       <c r="A566" s="3">
         <v>409</v>
       </c>
@@ -16080,7 +16170,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:6" ht="14.5">
       <c r="A567" s="3">
         <v>412</v>
       </c>
@@ -16101,7 +16191,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:6" ht="14.5">
       <c r="A568" s="3">
         <v>414</v>
       </c>
@@ -16122,7 +16212,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:6" ht="14.5">
       <c r="A569" s="3">
         <v>416</v>
       </c>
@@ -16143,7 +16233,7 @@
         <v>Table No - 11</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:6" ht="14.5">
       <c r="A570" s="3">
         <v>423</v>
       </c>
@@ -16164,7 +16254,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:6" ht="14.5">
       <c r="A571" s="3">
         <v>425</v>
       </c>
@@ -16185,7 +16275,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:6" ht="14.5">
       <c r="A572" s="3">
         <v>429</v>
       </c>
@@ -16206,7 +16296,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:6" ht="14.5">
       <c r="A573" s="3">
         <v>433</v>
       </c>
@@ -16227,7 +16317,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:6" ht="14.5">
       <c r="A574" s="3">
         <v>435</v>
       </c>
@@ -16248,7 +16338,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:6" ht="14.5">
       <c r="A575" s="3">
         <v>437</v>
       </c>
@@ -16269,7 +16359,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:6" ht="14.5">
       <c r="A576" s="3">
         <v>441</v>
       </c>
@@ -16290,7 +16380,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:6" ht="14.5">
       <c r="A577" s="3">
         <v>442</v>
       </c>
@@ -16311,7 +16401,7 @@
         <v>Table No - 12</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:6" ht="14.5">
       <c r="A578" s="3">
         <v>443</v>
       </c>
@@ -16328,11 +16418,11 @@
         <v>16</v>
       </c>
       <c r="F578" s="3" t="str">
-        <f t="shared" ref="F578:F612" si="9">CONCATENATE(D578," No - ",E578)</f>
+        <f t="shared" si="9" ref="F578:F612">CONCATENATE(D578," No - ",E578)</f>
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:6" ht="14.5">
       <c r="A579" s="3">
         <v>452</v>
       </c>
@@ -16353,7 +16443,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:6" ht="14.5">
       <c r="A580" s="3">
         <v>458</v>
       </c>
@@ -16374,7 +16464,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:6" ht="14.5">
       <c r="A581" s="3">
         <v>459</v>
       </c>
@@ -16395,7 +16485,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:6" ht="14.5">
       <c r="A582" s="3">
         <v>464</v>
       </c>
@@ -16416,7 +16506,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:6" ht="14.5">
       <c r="A583" s="3">
         <v>468</v>
       </c>
@@ -16437,7 +16527,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:6" ht="14.5">
       <c r="A584" s="3">
         <v>473</v>
       </c>
@@ -16458,7 +16548,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:6" ht="14.5">
       <c r="A585" s="3">
         <v>474</v>
       </c>
@@ -16479,7 +16569,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:6" ht="14.5">
       <c r="A586" s="3">
         <v>477</v>
       </c>
@@ -16500,7 +16590,7 @@
         <v>Table No - 16</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:6" ht="14.5">
       <c r="A587" s="3">
         <v>555</v>
       </c>
@@ -16521,7 +16611,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:6" ht="14.5">
       <c r="A588" s="3">
         <v>556</v>
       </c>
@@ -16542,7 +16632,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:6" ht="14.5">
       <c r="A589" s="3">
         <v>557</v>
       </c>
@@ -16563,7 +16653,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:6" ht="14.5">
       <c r="A590" s="3">
         <v>558</v>
       </c>
@@ -16584,7 +16674,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:6" ht="14.5">
       <c r="A591" s="3">
         <v>559</v>
       </c>
@@ -16605,7 +16695,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:6" ht="14.5">
       <c r="A592" s="3">
         <v>560</v>
       </c>
@@ -16626,7 +16716,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" ht="14.5">
       <c r="A593" s="3">
         <v>561</v>
       </c>
@@ -16647,7 +16737,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" ht="14.5">
       <c r="A594" s="3">
         <v>562</v>
       </c>
@@ -16668,7 +16758,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" ht="14.5">
       <c r="A595" s="3">
         <v>563</v>
       </c>
@@ -16689,7 +16779,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" ht="14.5">
       <c r="A596" s="3">
         <v>564</v>
       </c>
@@ -16710,7 +16800,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" ht="14.5">
       <c r="A597" s="3">
         <v>565</v>
       </c>
@@ -16731,7 +16821,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:6" ht="14.5">
       <c r="A598" s="3">
         <v>597</v>
       </c>
@@ -16750,7 +16840,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" ht="14.5">
       <c r="A599" s="3">
         <v>598</v>
       </c>
@@ -16769,7 +16859,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" ht="14.5">
       <c r="A600" s="3">
         <v>599</v>
       </c>
@@ -16788,7 +16878,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" ht="14.5">
       <c r="A601" s="3">
         <v>600</v>
       </c>
@@ -16807,7 +16897,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:6" ht="14.5">
       <c r="A602" s="3">
         <v>601</v>
       </c>
@@ -16826,7 +16916,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:6" ht="14.5">
       <c r="A603" s="3">
         <v>602</v>
       </c>
@@ -16845,7 +16935,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:6" ht="14.5">
       <c r="A604" s="3">
         <v>603</v>
       </c>
@@ -16864,7 +16954,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:6" ht="14.5">
       <c r="A605" s="3">
         <v>604</v>
       </c>
@@ -16883,7 +16973,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:6" ht="14.5">
       <c r="A606" s="3">
         <v>605</v>
       </c>
@@ -16902,7 +16992,7 @@
         <v>Table No - 15</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:6" ht="14.5">
       <c r="A607" s="3">
         <v>606</v>
       </c>
@@ -16921,7 +17011,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:6" ht="14.5">
       <c r="A608" s="3">
         <v>607</v>
       </c>
@@ -16940,7 +17030,7 @@
         <v>Table No - 13</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:6" ht="14.5">
       <c r="A609" s="3">
         <v>608</v>
       </c>
@@ -16959,7 +17049,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:6" ht="14.5">
       <c r="A610" s="3">
         <v>609</v>
       </c>
@@ -16978,7 +17068,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:6" ht="14.5">
       <c r="A611" s="3">
         <v>610</v>
       </c>
@@ -16997,7 +17087,7 @@
         <v>Table No - 14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:6" ht="14.5">
       <c r="A612" s="3">
         <v>611</v>
       </c>
@@ -17017,20 +17107,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F612" xr:uid="{6EA5534B-E663-4101-B9CC-D9E29370EFE7}"/>
+  <autoFilter ref="A1:F612"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6893A074-436B-48BC-B343-1ABE0B0C14FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6893A074-436B-48BC-B343-1ABE0B0C14FD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/seatPage.xlsx
+++ b/seatPage.xlsx
@@ -47,7 +47,7 @@
     <t>EMIP</t>
   </si>
   <si>
-    <t>Emp Name</t>
+    <t>EmpName</t>
   </si>
   <si>
     <t>Seat</t>
@@ -4272,7 +4272,7 @@
   <dimension ref="A1:F612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="topLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
